--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1931320.75402535</v>
+        <v>1926799.168009419</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5117489.51767665</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11267141.12685076</v>
+        <v>11336604.71754492</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5937917.859531854</v>
+        <v>5887170.469368561</v>
       </c>
     </row>
     <row r="11">
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.21221321027571</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.97895909394842</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21.99547137463753</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>8.576290472212831</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>13.990062012018</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.61420884076313</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>10.95214364346771</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>52.77779986093952</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>76.60208276374472</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>76.60208276374472</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.75298821315427</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.84391873418748</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.049623295570467</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.413711578255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093953</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>76.60208276374472</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>76.60208276374472</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.7230007489661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>27.413711578255</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093952</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>37.37733083959668</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.26727114873969</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.26727114873969</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.26727114873969</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.26727114873969</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>16.18099906528562</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39.660229391928</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>13.78114737714938</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>13.78114737714938</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>13.78114737714938</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>65.53931140670662</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>39.660229391928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570477</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.413711578255</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093952</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9404,16 +9404,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -9653,7 +9653,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,16 +9875,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9966,13 +9966,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,16 +10112,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
@@ -10197,19 +10197,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10352,16 +10352,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10434,16 +10434,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10595,13 +10595,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -10832,13 +10832,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10911,16 +10911,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11063,16 +11063,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.4643498375978</v>
+        <v>353.7810665888924</v>
       </c>
       <c r="C11" t="n">
-        <v>343.0033999451247</v>
+        <v>336.3201166964193</v>
       </c>
       <c r="D11" t="n">
-        <v>332.4135497948001</v>
+        <v>325.7302665460948</v>
       </c>
       <c r="E11" t="n">
-        <v>359.660878246379</v>
+        <v>352.9775949976736</v>
       </c>
       <c r="F11" t="n">
-        <v>384.6065539158286</v>
+        <v>377.9232706671232</v>
       </c>
       <c r="G11" t="n">
-        <v>393.0332456892522</v>
+        <v>386.3499624405468</v>
       </c>
       <c r="H11" t="n">
-        <v>317.2053102898843</v>
+        <v>310.5220270411789</v>
       </c>
       <c r="I11" t="n">
-        <v>188.2063977445231</v>
+        <v>181.5231144958177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5996261152668</v>
+        <v>120.9163428665615</v>
       </c>
       <c r="S11" t="n">
-        <v>186.7505777603625</v>
+        <v>180.0672945116571</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8263577382485</v>
+        <v>194.1430744895432</v>
       </c>
       <c r="U11" t="n">
-        <v>229.0761610819536</v>
+        <v>222.3928778332483</v>
       </c>
       <c r="V11" t="n">
-        <v>305.482766644252</v>
+        <v>298.7994833955467</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9714768915302</v>
+        <v>320.2881936428248</v>
       </c>
       <c r="X11" t="n">
-        <v>347.4616088525862</v>
+        <v>340.7783256038808</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.9684468301707</v>
+        <v>357.2851635814654</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.2636918239845</v>
+        <v>137.5804085752791</v>
       </c>
       <c r="C12" t="n">
-        <v>150.4390071624329</v>
+        <v>143.7557239137275</v>
       </c>
       <c r="D12" t="n">
-        <v>125.1755737387559</v>
+        <v>118.4922904900505</v>
       </c>
       <c r="E12" t="n">
-        <v>135.3755886295181</v>
+        <v>128.6923053808127</v>
       </c>
       <c r="F12" t="n">
-        <v>122.799720567501</v>
+        <v>116.1164373187957</v>
       </c>
       <c r="G12" t="n">
-        <v>115.0740253373278</v>
+        <v>108.3907420886224</v>
       </c>
       <c r="H12" t="n">
-        <v>89.96595241061361</v>
+        <v>83.28266916190825</v>
       </c>
       <c r="I12" t="n">
-        <v>67.12714102553223</v>
+        <v>60.44385777682686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.88834232676028</v>
+        <v>71.20505907805492</v>
       </c>
       <c r="S12" t="n">
-        <v>149.413679277955</v>
+        <v>142.7303960292496</v>
       </c>
       <c r="T12" t="n">
-        <v>177.8952368689388</v>
+        <v>171.2119536202334</v>
       </c>
       <c r="U12" t="n">
-        <v>203.671890255092</v>
+        <v>196.9886070063866</v>
       </c>
       <c r="V12" t="n">
-        <v>210.5310953235424</v>
+        <v>203.8478120748371</v>
       </c>
       <c r="W12" t="n">
-        <v>229.4254913350368</v>
+        <v>222.7422080863314</v>
       </c>
       <c r="X12" t="n">
-        <v>183.5034933775946</v>
+        <v>176.8202101288892</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.4132039514215</v>
+        <v>176.7299207027161</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.5624883560544</v>
+        <v>150.8792051073491</v>
       </c>
       <c r="C13" t="n">
-        <v>144.977329272745</v>
+        <v>138.2940460240396</v>
       </c>
       <c r="D13" t="n">
-        <v>126.3459811923295</v>
+        <v>119.6626979436241</v>
       </c>
       <c r="E13" t="n">
-        <v>124.1644708206863</v>
+        <v>117.481187571981</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1515561970484</v>
+        <v>116.468272948343</v>
       </c>
       <c r="G13" t="n">
-        <v>145.7214875325759</v>
+        <v>139.0382042838705</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9576806815567</v>
+        <v>133.2743974328513</v>
       </c>
       <c r="I13" t="n">
-        <v>133.1809831013754</v>
+        <v>126.4976998526701</v>
       </c>
       <c r="J13" t="n">
-        <v>71.08968829078992</v>
+        <v>64.40640504208456</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23458,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.89255142581153</v>
+        <v>57.20926817710617</v>
       </c>
       <c r="R13" t="n">
-        <v>155.0238995512866</v>
+        <v>148.3406163025813</v>
       </c>
       <c r="S13" t="n">
-        <v>201.7471062110894</v>
+        <v>195.0638229623841</v>
       </c>
       <c r="T13" t="n">
-        <v>205.6760976023986</v>
+        <v>198.9928143536933</v>
       </c>
       <c r="U13" t="n">
-        <v>264.0495375306081</v>
+        <v>257.3662542819027</v>
       </c>
       <c r="V13" t="n">
-        <v>229.8681514979451</v>
+        <v>223.1848682492398</v>
       </c>
       <c r="W13" t="n">
-        <v>264.2535065107081</v>
+        <v>257.5702232620028</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4401635631543</v>
+        <v>196.7568803144489</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.3151615262119</v>
+        <v>189.6318782775066</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D14" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E14" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G14" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H14" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I14" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S14" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U14" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V14" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W14" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X14" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C15" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D15" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E15" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F15" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G15" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H15" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S15" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T15" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U15" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V15" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X15" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C16" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E16" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F16" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G16" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H16" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I16" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J16" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T16" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U16" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V16" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W16" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X16" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C17" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D17" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E17" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F17" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G17" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H17" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I17" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W17" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S18" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U18" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W18" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E19" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F19" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H19" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U19" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C20" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D20" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E20" t="n">
-        <v>269.9673847366159</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F20" t="n">
-        <v>291.8591216956655</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G20" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H20" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U20" t="n">
-        <v>136.3287288617906</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W20" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X20" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.2210146100077</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.57019831422143</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C21" t="n">
-        <v>57.69157494226983</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D21" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S21" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U21" t="n">
-        <v>110.9244580349289</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W21" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X21" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y21" t="n">
-        <v>90.66577173125845</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C22" t="n">
-        <v>52.22989705258193</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G22" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H22" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.27646733112358</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W22" t="n">
-        <v>174.5600130009451</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X22" t="n">
-        <v>110.6927313429913</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G23" t="n">
-        <v>303.3397521794892</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.85219389510377</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S23" t="n">
-        <v>94.00314554019943</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W23" t="n">
-        <v>234.2240446713671</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X23" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E24" t="n">
-        <v>42.62815640935503</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F24" t="n">
-        <v>30.05228834733797</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G24" t="n">
-        <v>22.32659311716472</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2724589008505447</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W24" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.81505613589138</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C25" t="n">
-        <v>55.28383576298192</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.27646733112357</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T25" t="n">
-        <v>112.9286653822356</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="26">
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>270.7708563278347</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>250.2559677249617</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>239.6661175746371</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>266.9134460262159</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
         <v>317.4794128902964</v>
@@ -24528,16 +24528,16 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>42.62815640935504</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>30.05228834733797</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>22.32659311716473</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2724589008505554</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>171.302105310445</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>171.5060742905451</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>110.6927313429913</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.6216680164489</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>249.2788381108599</v>
+        <v>245.5081696176536</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8178882183868</v>
+        <v>228.0472197251806</v>
       </c>
       <c r="D29" t="n">
-        <v>221.2280380680622</v>
+        <v>217.457369574856</v>
       </c>
       <c r="E29" t="n">
-        <v>248.4753665196411</v>
+        <v>244.7046980264348</v>
       </c>
       <c r="F29" t="n">
-        <v>273.4210421890907</v>
+        <v>269.6503736958845</v>
       </c>
       <c r="G29" t="n">
-        <v>281.8477339625143</v>
+        <v>278.0770654693081</v>
       </c>
       <c r="H29" t="n">
-        <v>206.0197985631464</v>
+        <v>202.2491300699402</v>
       </c>
       <c r="I29" t="n">
-        <v>77.02088601778519</v>
+        <v>73.25021752457894</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.41411438852896</v>
+        <v>12.64344589532271</v>
       </c>
       <c r="S29" t="n">
-        <v>75.56506603362462</v>
+        <v>71.79439754041837</v>
       </c>
       <c r="T29" t="n">
-        <v>67.0744935272798</v>
+        <v>85.87017751830439</v>
       </c>
       <c r="U29" t="n">
-        <v>117.8906493552158</v>
+        <v>114.1199808620095</v>
       </c>
       <c r="V29" t="n">
-        <v>168.6769637228834</v>
+        <v>190.5265864243079</v>
       </c>
       <c r="W29" t="n">
-        <v>190.1656739701615</v>
+        <v>212.015296671586</v>
       </c>
       <c r="X29" t="n">
-        <v>236.2760971258483</v>
+        <v>232.5054286326421</v>
       </c>
       <c r="Y29" t="n">
-        <v>227.162643908802</v>
+        <v>249.0122666102266</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33.07818009724662</v>
+        <v>29.30751160404037</v>
       </c>
       <c r="C30" t="n">
-        <v>39.25349543569502</v>
+        <v>35.48282694248877</v>
       </c>
       <c r="D30" t="n">
-        <v>13.99006201201803</v>
+        <v>10.21939351881178</v>
       </c>
       <c r="E30" t="n">
-        <v>24.19007690278022</v>
+        <v>20.41940840957398</v>
       </c>
       <c r="F30" t="n">
-        <v>11.61420884076315</v>
+        <v>7.84354034755691</v>
       </c>
       <c r="G30" t="n">
-        <v>3.888513610589911</v>
+        <v>0.1178451173836663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>38.2281675512171</v>
+        <v>34.45749905801085</v>
       </c>
       <c r="T30" t="n">
-        <v>66.70972514220088</v>
+        <v>62.93905664899464</v>
       </c>
       <c r="U30" t="n">
-        <v>66.86608733372327</v>
+        <v>88.71571003514785</v>
       </c>
       <c r="V30" t="n">
-        <v>73.72529240217372</v>
+        <v>95.5749151035983</v>
       </c>
       <c r="W30" t="n">
-        <v>92.61968841366806</v>
+        <v>114.4693111150926</v>
       </c>
       <c r="X30" t="n">
-        <v>72.31798165085675</v>
+        <v>68.54731315765051</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.6613397404528</v>
+        <v>68.45702373147739</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.37697662931657</v>
+        <v>42.60630813611033</v>
       </c>
       <c r="C31" t="n">
-        <v>33.79181754600711</v>
+        <v>30.02114905280087</v>
       </c>
       <c r="D31" t="n">
-        <v>15.16046946559163</v>
+        <v>11.38980097238539</v>
       </c>
       <c r="E31" t="n">
-        <v>12.97895909394845</v>
+        <v>9.208290600742203</v>
       </c>
       <c r="F31" t="n">
-        <v>11.96604447031052</v>
+        <v>8.195375977104277</v>
       </c>
       <c r="G31" t="n">
-        <v>34.53597580583804</v>
+        <v>30.76530731263179</v>
       </c>
       <c r="H31" t="n">
-        <v>28.77216895481885</v>
+        <v>25.00150046161261</v>
       </c>
       <c r="I31" t="n">
-        <v>21.99547137463756</v>
+        <v>18.22480288143132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.83838782454876</v>
+        <v>40.06771933134252</v>
       </c>
       <c r="S31" t="n">
-        <v>67.9952420001207</v>
+        <v>86.79092599114529</v>
       </c>
       <c r="T31" t="n">
-        <v>68.87029468102995</v>
+        <v>90.71991738245453</v>
       </c>
       <c r="U31" t="n">
-        <v>127.2437346092393</v>
+        <v>149.0933573106639</v>
       </c>
       <c r="V31" t="n">
-        <v>118.6826397712073</v>
+        <v>114.911971278001</v>
       </c>
       <c r="W31" t="n">
-        <v>127.4477035893395</v>
+        <v>149.297326290764</v>
       </c>
       <c r="X31" t="n">
-        <v>92.25465183641643</v>
+        <v>88.48398334321018</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.12964979947407</v>
+        <v>81.35898130626782</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>249.2788381108598</v>
+        <v>245.5081696176536</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8178882183868</v>
+        <v>228.0472197251806</v>
       </c>
       <c r="D32" t="n">
-        <v>221.2280380680622</v>
+        <v>217.457369574856</v>
       </c>
       <c r="E32" t="n">
-        <v>222.8550753250102</v>
+        <v>244.7046980264348</v>
       </c>
       <c r="F32" t="n">
-        <v>247.8007509944599</v>
+        <v>269.6503736958845</v>
       </c>
       <c r="G32" t="n">
-        <v>256.2274427678835</v>
+        <v>278.0770654693081</v>
       </c>
       <c r="H32" t="n">
-        <v>206.0197985631464</v>
+        <v>202.2491300699402</v>
       </c>
       <c r="I32" t="n">
-        <v>77.02088601778516</v>
+        <v>73.25021752457894</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>16.41411438852893</v>
+        <v>12.64344589532271</v>
       </c>
       <c r="S32" t="n">
-        <v>75.56506603362459</v>
+        <v>71.79439754041837</v>
       </c>
       <c r="T32" t="n">
-        <v>89.6408460115106</v>
+        <v>85.87017751830439</v>
       </c>
       <c r="U32" t="n">
-        <v>95.32429687098491</v>
+        <v>114.1199808620095</v>
       </c>
       <c r="V32" t="n">
-        <v>194.2972549175142</v>
+        <v>190.5265864243079</v>
       </c>
       <c r="W32" t="n">
-        <v>215.7859651647923</v>
+        <v>212.015296671586</v>
       </c>
       <c r="X32" t="n">
-        <v>236.2760971258483</v>
+        <v>232.5054286326421</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.7829351034328</v>
+        <v>249.0122666102266</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33.07818009724659</v>
+        <v>29.30751160404037</v>
       </c>
       <c r="C33" t="n">
-        <v>39.25349543569499</v>
+        <v>35.48282694248877</v>
       </c>
       <c r="D33" t="n">
-        <v>13.990062012018</v>
+        <v>10.21939351881178</v>
       </c>
       <c r="E33" t="n">
-        <v>1.623724418549362</v>
+        <v>20.41940840957398</v>
       </c>
       <c r="F33" t="n">
-        <v>11.61420884076313</v>
+        <v>7.84354034755691</v>
       </c>
       <c r="G33" t="n">
-        <v>3.888513610589882</v>
+        <v>0.1178451173836663</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>38.22816755121707</v>
+        <v>34.45749905801085</v>
       </c>
       <c r="T33" t="n">
-        <v>66.70972514220085</v>
+        <v>62.93905664899464</v>
       </c>
       <c r="U33" t="n">
-        <v>92.48637852835407</v>
+        <v>88.71571003514785</v>
       </c>
       <c r="V33" t="n">
-        <v>73.72529240217369</v>
+        <v>95.5749151035983</v>
       </c>
       <c r="W33" t="n">
-        <v>92.61968841366803</v>
+        <v>114.4693111150926</v>
       </c>
       <c r="X33" t="n">
-        <v>72.31798165085672</v>
+        <v>68.54731315765051</v>
       </c>
       <c r="Y33" t="n">
-        <v>46.60740103005278</v>
+        <v>68.45702373147739</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.37697662931654</v>
+        <v>42.60630813611033</v>
       </c>
       <c r="C34" t="n">
-        <v>33.79181754600708</v>
+        <v>30.02114905280087</v>
       </c>
       <c r="D34" t="n">
-        <v>1.948256255315894</v>
+        <v>11.38980097238539</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.208290600742203</v>
       </c>
       <c r="F34" t="n">
-        <v>11.96604447031049</v>
+        <v>8.195375977104277</v>
       </c>
       <c r="G34" t="n">
-        <v>34.53597580583801</v>
+        <v>30.76530731263179</v>
       </c>
       <c r="H34" t="n">
-        <v>28.77216895481882</v>
+        <v>25.00150046161261</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.22480288143132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.2180966299179</v>
+        <v>40.06771933134252</v>
       </c>
       <c r="S34" t="n">
-        <v>90.5615944843515</v>
+        <v>86.79092599114529</v>
       </c>
       <c r="T34" t="n">
-        <v>94.49058587566074</v>
+        <v>90.71991738245453</v>
       </c>
       <c r="U34" t="n">
-        <v>152.8640258038701</v>
+        <v>149.0933573106639</v>
       </c>
       <c r="V34" t="n">
-        <v>118.6826397712072</v>
+        <v>114.911971278001</v>
       </c>
       <c r="W34" t="n">
-        <v>153.0679947839702</v>
+        <v>149.297326290764</v>
       </c>
       <c r="X34" t="n">
-        <v>92.2546518364164</v>
+        <v>88.48398334321018</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.50935860484321</v>
+        <v>81.35898130626782</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>249.2788381108598</v>
+        <v>245.5081696176536</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8178882183868</v>
+        <v>228.0472197251806</v>
       </c>
       <c r="D35" t="n">
-        <v>221.2280380680622</v>
+        <v>217.457369574856</v>
       </c>
       <c r="E35" t="n">
-        <v>248.475366519641</v>
+        <v>244.7046980264348</v>
       </c>
       <c r="F35" t="n">
-        <v>273.4210421890907</v>
+        <v>269.6503736958845</v>
       </c>
       <c r="G35" t="n">
-        <v>281.8477339625143</v>
+        <v>278.0770654693081</v>
       </c>
       <c r="H35" t="n">
-        <v>206.0197985631464</v>
+        <v>202.2491300699402</v>
       </c>
       <c r="I35" t="n">
-        <v>77.02088601778516</v>
+        <v>73.25021752457894</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.41411438852893</v>
+        <v>12.64344589532271</v>
       </c>
       <c r="S35" t="n">
-        <v>75.56506603362459</v>
+        <v>71.79439754041837</v>
       </c>
       <c r="T35" t="n">
-        <v>89.6408460115106</v>
+        <v>85.87017751830439</v>
       </c>
       <c r="U35" t="n">
-        <v>95.32429687098491</v>
+        <v>114.1199808620095</v>
       </c>
       <c r="V35" t="n">
-        <v>168.6769637228833</v>
+        <v>190.5265864243079</v>
       </c>
       <c r="W35" t="n">
-        <v>190.1656739701614</v>
+        <v>212.015296671586</v>
       </c>
       <c r="X35" t="n">
-        <v>210.6558059312175</v>
+        <v>232.5054286326421</v>
       </c>
       <c r="Y35" t="n">
-        <v>252.7829351034328</v>
+        <v>249.0122666102266</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33.07818009724659</v>
+        <v>29.30751160404037</v>
       </c>
       <c r="C36" t="n">
-        <v>30.67720496348215</v>
+        <v>35.48282694248877</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>10.21939351881178</v>
       </c>
       <c r="E36" t="n">
-        <v>24.19007690278019</v>
+        <v>20.41940840957398</v>
       </c>
       <c r="F36" t="n">
-        <v>11.61420884076313</v>
+        <v>7.84354034755691</v>
       </c>
       <c r="G36" t="n">
-        <v>3.888513610589882</v>
+        <v>0.1178451173836663</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>12.60787635658624</v>
+        <v>34.45749905801085</v>
       </c>
       <c r="T36" t="n">
-        <v>41.08943394757002</v>
+        <v>62.93905664899464</v>
       </c>
       <c r="U36" t="n">
-        <v>92.48637852835407</v>
+        <v>88.71571003514785</v>
       </c>
       <c r="V36" t="n">
-        <v>73.72529240217369</v>
+        <v>95.5749151035983</v>
       </c>
       <c r="W36" t="n">
-        <v>118.2399796082989</v>
+        <v>114.4693111150926</v>
       </c>
       <c r="X36" t="n">
-        <v>72.31798165085672</v>
+        <v>68.54731315765051</v>
       </c>
       <c r="Y36" t="n">
-        <v>72.22769222468361</v>
+        <v>68.45702373147739</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.37697662931654</v>
+        <v>42.60630813611033</v>
       </c>
       <c r="C37" t="n">
-        <v>33.79181754600708</v>
+        <v>30.02114905280087</v>
       </c>
       <c r="D37" t="n">
-        <v>15.1604694655916</v>
+        <v>11.38980097238539</v>
       </c>
       <c r="E37" t="n">
-        <v>12.97895909394842</v>
+        <v>9.208290600742203</v>
       </c>
       <c r="F37" t="n">
-        <v>11.96604447031049</v>
+        <v>8.195375977104277</v>
       </c>
       <c r="G37" t="n">
-        <v>34.53597580583801</v>
+        <v>30.76530731263179</v>
       </c>
       <c r="H37" t="n">
-        <v>28.77216895481882</v>
+        <v>25.00150046161261</v>
       </c>
       <c r="I37" t="n">
-        <v>21.99547137463753</v>
+        <v>18.22480288143132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.2180966299179</v>
+        <v>40.06771933134252</v>
       </c>
       <c r="S37" t="n">
-        <v>90.5615944843515</v>
+        <v>86.79092599114529</v>
       </c>
       <c r="T37" t="n">
-        <v>68.87029468102992</v>
+        <v>90.71991738245453</v>
       </c>
       <c r="U37" t="n">
-        <v>130.2976733196393</v>
+        <v>149.0933573106639</v>
       </c>
       <c r="V37" t="n">
-        <v>93.06234857657643</v>
+        <v>114.911971278001</v>
       </c>
       <c r="W37" t="n">
-        <v>153.0679947839702</v>
+        <v>149.297326290764</v>
       </c>
       <c r="X37" t="n">
-        <v>92.2546518364164</v>
+        <v>88.48398334321018</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.12964979947404</v>
+        <v>81.35898130626782</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>226.712485626629</v>
+        <v>245.5081696176536</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8178882183868</v>
+        <v>228.0472197251806</v>
       </c>
       <c r="D38" t="n">
-        <v>221.2280380680622</v>
+        <v>217.457369574856</v>
       </c>
       <c r="E38" t="n">
-        <v>248.475366519641</v>
+        <v>244.7046980264348</v>
       </c>
       <c r="F38" t="n">
-        <v>273.4210421890907</v>
+        <v>269.6503736958845</v>
       </c>
       <c r="G38" t="n">
-        <v>281.8477339625143</v>
+        <v>278.0770654693081</v>
       </c>
       <c r="H38" t="n">
-        <v>206.0197985631464</v>
+        <v>202.2491300699402</v>
       </c>
       <c r="I38" t="n">
-        <v>77.02088601778516</v>
+        <v>73.25021752457894</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>16.41411438852893</v>
+        <v>12.64344589532271</v>
       </c>
       <c r="S38" t="n">
-        <v>75.56506603362459</v>
+        <v>71.79439754041837</v>
       </c>
       <c r="T38" t="n">
-        <v>89.6408460115106</v>
+        <v>85.87017751830439</v>
       </c>
       <c r="U38" t="n">
-        <v>117.8906493552157</v>
+        <v>114.1199808620095</v>
       </c>
       <c r="V38" t="n">
-        <v>194.2972549175142</v>
+        <v>190.5265864243079</v>
       </c>
       <c r="W38" t="n">
-        <v>190.1656739701614</v>
+        <v>212.015296671586</v>
       </c>
       <c r="X38" t="n">
-        <v>210.6558059312175</v>
+        <v>232.5054286326421</v>
       </c>
       <c r="Y38" t="n">
-        <v>227.162643908802</v>
+        <v>249.0122666102266</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33.07818009724659</v>
+        <v>29.30751160404037</v>
       </c>
       <c r="C39" t="n">
-        <v>13.63320424106416</v>
+        <v>35.48282694248877</v>
       </c>
       <c r="D39" t="n">
-        <v>13.990062012018</v>
+        <v>10.21939351881178</v>
       </c>
       <c r="E39" t="n">
-        <v>24.19007690278019</v>
+        <v>20.41940840957398</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.84354034755691</v>
       </c>
       <c r="G39" t="n">
-        <v>3.888513610589882</v>
+        <v>0.1178451173836663</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>38.22816755121707</v>
+        <v>34.45749905801085</v>
       </c>
       <c r="T39" t="n">
-        <v>66.70972514220085</v>
+        <v>62.93905664899464</v>
       </c>
       <c r="U39" t="n">
-        <v>92.48637852835407</v>
+        <v>88.71571003514785</v>
       </c>
       <c r="V39" t="n">
-        <v>99.34558359680452</v>
+        <v>95.5749151035983</v>
       </c>
       <c r="W39" t="n">
-        <v>92.61968841366803</v>
+        <v>114.4693111150926</v>
       </c>
       <c r="X39" t="n">
-        <v>61.36583800738902</v>
+        <v>68.54731315765051</v>
       </c>
       <c r="Y39" t="n">
-        <v>46.60740103005278</v>
+        <v>68.45702373147739</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.75668543468571</v>
+        <v>42.60630813611033</v>
       </c>
       <c r="C40" t="n">
-        <v>8.171526351376251</v>
+        <v>30.02114905280087</v>
       </c>
       <c r="D40" t="n">
-        <v>15.1604694655916</v>
+        <v>11.38980097238539</v>
       </c>
       <c r="E40" t="n">
-        <v>12.97895909394842</v>
+        <v>9.208290600742203</v>
       </c>
       <c r="F40" t="n">
-        <v>11.96604447031049</v>
+        <v>8.195375977104277</v>
       </c>
       <c r="G40" t="n">
-        <v>34.53597580583801</v>
+        <v>30.76530731263179</v>
       </c>
       <c r="H40" t="n">
-        <v>28.77216895481882</v>
+        <v>25.00150046161261</v>
       </c>
       <c r="I40" t="n">
-        <v>21.99547137463753</v>
+        <v>18.22480288143132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.27203534031791</v>
+        <v>40.06771933134252</v>
       </c>
       <c r="S40" t="n">
-        <v>90.5615944843515</v>
+        <v>86.79092599114529</v>
       </c>
       <c r="T40" t="n">
-        <v>94.49058587566074</v>
+        <v>90.71991738245453</v>
       </c>
       <c r="U40" t="n">
-        <v>152.8640258038701</v>
+        <v>149.0933573106639</v>
       </c>
       <c r="V40" t="n">
-        <v>118.6826397712072</v>
+        <v>114.911971278001</v>
       </c>
       <c r="W40" t="n">
-        <v>127.4477035893394</v>
+        <v>149.297326290764</v>
       </c>
       <c r="X40" t="n">
-        <v>92.2546518364164</v>
+        <v>88.48398334321018</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.12964979947404</v>
+        <v>81.35898130626782</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.9280387421119</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C41" t="n">
-        <v>228.4670888496388</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D41" t="n">
-        <v>243.4975298939451</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E41" t="n">
-        <v>245.1245671508931</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F41" t="n">
-        <v>295.6905340149735</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G41" t="n">
-        <v>304.1172257883971</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H41" t="n">
-        <v>228.2892903890292</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I41" t="n">
-        <v>99.29037784366801</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>38.68360621441178</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.83455785950744</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T41" t="n">
-        <v>111.9103378373935</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U41" t="n">
-        <v>140.1601411810986</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V41" t="n">
-        <v>216.566746743397</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W41" t="n">
-        <v>238.0554569906751</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X41" t="n">
-        <v>258.5455889517311</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.4860744450849</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.34767192312944</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C42" t="n">
-        <v>61.52298726157784</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D42" t="n">
-        <v>36.25955383790085</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E42" t="n">
-        <v>46.45956872866304</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F42" t="n">
-        <v>33.88370066664598</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G42" t="n">
-        <v>26.15800543647273</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H42" t="n">
-        <v>1.049932509758563</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>34.87736818246909</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T42" t="n">
-        <v>63.35892577345287</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U42" t="n">
-        <v>89.1355791596061</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V42" t="n">
-        <v>99.04872293845654</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W42" t="n">
-        <v>140.5094714341817</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X42" t="n">
-        <v>94.58747347673958</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y42" t="n">
-        <v>94.49718405056646</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.6464684551994</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C43" t="n">
-        <v>56.06130937188993</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D43" t="n">
-        <v>37.42996129147446</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E43" t="n">
-        <v>35.24845091983127</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F43" t="n">
-        <v>34.23553629619335</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G43" t="n">
-        <v>56.80546763172086</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H43" t="n">
-        <v>51.04166078070168</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I43" t="n">
-        <v>44.26496320052038</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.10787965043158</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S43" t="n">
-        <v>112.8310863102344</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T43" t="n">
-        <v>94.19372521731276</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U43" t="n">
-        <v>149.5132264351222</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V43" t="n">
-        <v>115.3318404024593</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W43" t="n">
-        <v>149.7171954152223</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X43" t="n">
-        <v>114.5241436622993</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.3991416253569</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>310369.7609211461</v>
+        <v>322319.4713698314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430334.8664620026</v>
+        <v>437222.5661184737</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430334.8664620026</v>
+        <v>437222.5661184737</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448627.7058258113</v>
+        <v>437222.5661184737</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448627.7058258114</v>
+        <v>437222.5661184737</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448627.7058258114</v>
+        <v>430334.8664620026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>522754.6089836282</v>
+        <v>510708.2590456648</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>522754.6089836281</v>
+        <v>510708.2590456648</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>522754.6089836282</v>
+        <v>510708.2590456648</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>522754.6089836282</v>
+        <v>510708.2590456648</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485829.5809710601</v>
+        <v>469309.447656728</v>
       </c>
     </row>
     <row r="16">
@@ -26320,37 +26320,37 @@
         <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>270483.1405195994</v>
+        <v>286416.0877845131</v>
       </c>
       <c r="F2" t="n">
-        <v>430436.6145740749</v>
+        <v>439620.2141160361</v>
       </c>
       <c r="G2" t="n">
-        <v>430436.6145740752</v>
+        <v>439620.2141160361</v>
       </c>
       <c r="H2" t="n">
-        <v>444952.9895800208</v>
+        <v>439620.2141160358</v>
       </c>
       <c r="I2" t="n">
-        <v>444952.9895800207</v>
+        <v>439620.2141160358</v>
       </c>
       <c r="J2" t="n">
-        <v>444952.9895800211</v>
+        <v>430436.6145740751</v>
       </c>
       <c r="K2" t="n">
-        <v>543788.8604571098</v>
+        <v>537601.1380189578</v>
       </c>
       <c r="L2" t="n">
-        <v>543788.8604571096</v>
+        <v>537601.1380189578</v>
       </c>
       <c r="M2" t="n">
-        <v>543788.8604571098</v>
+        <v>537601.1380189578</v>
       </c>
       <c r="N2" t="n">
-        <v>543788.8604571096</v>
+        <v>537601.1380189578</v>
       </c>
       <c r="O2" t="n">
-        <v>494555.4897736863</v>
+        <v>482402.7228337082</v>
       </c>
       <c r="P2" t="n">
         <v>215014.8110628928</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>17815.59346070628</v>
+        <v>23162.22005967057</v>
       </c>
       <c r="F3" t="n">
-        <v>53701.71282042578</v>
+        <v>51525.12403366765</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6912.585146932151</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17815.59346070628</v>
+        <v>19992.18224746441</v>
       </c>
       <c r="K3" t="n">
-        <v>88948.40938139032</v>
+        <v>89788.35538919717</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>138639.556508057</v>
+        <v>148260.9034376801</v>
       </c>
       <c r="F4" t="n">
-        <v>229935.7331211011</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="G4" t="n">
-        <v>229935.733121101</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="H4" t="n">
-        <v>237327.1821688254</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="I4" t="n">
-        <v>237327.1821688254</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="J4" t="n">
-        <v>237327.1821688254</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="K4" t="n">
-        <v>293739.4431505757</v>
+        <v>291629.059986441</v>
       </c>
       <c r="L4" t="n">
-        <v>293739.4431505757</v>
+        <v>291629.059986441</v>
       </c>
       <c r="M4" t="n">
-        <v>293739.4431505757</v>
+        <v>291629.059986441</v>
       </c>
       <c r="N4" t="n">
-        <v>293739.4431505757</v>
+        <v>291629.059986441</v>
       </c>
       <c r="O4" t="n">
-        <v>265638.6561452337</v>
+        <v>260123.6219751579</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1872.173908310146</v>
+        <v>2434.030847745557</v>
       </c>
       <c r="F5" t="n">
+        <v>7848.612913228564</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7848.612913228564</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7848.612913228564</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7848.612913228564</v>
+      </c>
+      <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
-      <c r="G5" t="n">
-        <v>7515.485527185614</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9073.199231819168</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9073.19923181917</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9073.199231819168</v>
-      </c>
       <c r="K5" t="n">
-        <v>12777.14239829883</v>
+        <v>11536.42502322063</v>
       </c>
       <c r="L5" t="n">
-        <v>12777.14239829883</v>
+        <v>11536.42502322063</v>
       </c>
       <c r="M5" t="n">
-        <v>12777.14239829883</v>
+        <v>11536.42502322063</v>
       </c>
       <c r="N5" t="n">
-        <v>12777.14239829883</v>
+        <v>11536.42502322063</v>
       </c>
       <c r="O5" t="n">
-        <v>10904.96848998868</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333776.0933821197</v>
+        <v>333248.7481680734</v>
       </c>
       <c r="C6" t="n">
-        <v>333776.0933821195</v>
+        <v>333248.7481680731</v>
       </c>
       <c r="D6" t="n">
-        <v>333776.0933821195</v>
+        <v>333248.7481680731</v>
       </c>
       <c r="E6" t="n">
-        <v>112155.816642526</v>
+        <v>112558.9334394168</v>
       </c>
       <c r="F6" t="n">
-        <v>139283.6831053624</v>
+        <v>144541.7025802379</v>
       </c>
       <c r="G6" t="n">
-        <v>192985.3959257885</v>
+        <v>196066.8266139056</v>
       </c>
       <c r="H6" t="n">
-        <v>191640.0230324441</v>
+        <v>196066.8266139053</v>
       </c>
       <c r="I6" t="n">
-        <v>198552.6081793762</v>
+        <v>196066.8266139053</v>
       </c>
       <c r="J6" t="n">
-        <v>180737.0147186703</v>
+        <v>172465.8684642776</v>
       </c>
       <c r="K6" t="n">
-        <v>148323.8655268449</v>
+        <v>144647.297620099</v>
       </c>
       <c r="L6" t="n">
-        <v>237272.2749082351</v>
+        <v>234435.6530092962</v>
       </c>
       <c r="M6" t="n">
-        <v>237272.2749082352</v>
+        <v>234435.6530092962</v>
       </c>
       <c r="N6" t="n">
-        <v>237272.2749082351</v>
+        <v>234435.6530092962</v>
       </c>
       <c r="O6" t="n">
-        <v>218011.865138464</v>
+        <v>212843.5792970323</v>
       </c>
       <c r="P6" t="n">
-        <v>108034.7507454927</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="F2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="L2" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="M2" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="N2" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="O2" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="F2" t="n">
-        <v>67.12714102553223</v>
+        <v>64.40640504208456</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>24.99022780933052</v>
       </c>
       <c r="K2" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="K2" t="n">
-        <v>67.12714102553223</v>
+        <v>64.40640504208456</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.26949182588285</v>
+        <v>24.99022780933052</v>
       </c>
       <c r="P2" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="C11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="D11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="E11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="F11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="G11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="H11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="I11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28135,28 +28135,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="S11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="U11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="V11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="W11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="X11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="C12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="D12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="E12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="F12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="G12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="I12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="S12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="T12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="U12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="V12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="W12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="X12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="D13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="E13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="F13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="G13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="H13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="J13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -28290,31 +28290,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="R13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="S13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="T13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="U13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="V13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="W13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="X13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.26949182588285</v>
+        <v>28.95277507458822</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28530,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28767,28 +28767,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29004,28 +29004,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29241,28 +29241,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29557,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y29" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -29639,25 +29639,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y30" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="31">
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -29715,28 +29715,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.4550035526207</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y32" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29952,28 +29952,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30113,25 +30113,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y36" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30189,28 +30189,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30350,25 +30350,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y39" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="C40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="D40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="E40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="G40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="H40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="I40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30426,28 +30426,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="S40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="T40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="U40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="V40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="W40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="X40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.4550035526208</v>
+        <v>137.225672045827</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30587,25 +30587,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y42" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="43">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -30663,28 +30663,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.1855117267379</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="44">
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>24.58512791403968</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1926799.168009419</v>
+        <v>1910366.467749502</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5095622.684065031</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11336604.71754492</v>
+        <v>11746303.32766474</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5887170.469368561</v>
+        <v>5880313.83616939</v>
       </c>
     </row>
     <row r="11">
@@ -2318,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>12.22368416543312</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>13.54009294805839</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3171,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="34">
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3396,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="39">
@@ -3636,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="46">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
   </sheetData>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>14.40680816613169</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.40680816613169</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>15.88406358452063</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>15.88406358452063</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>15.88406358452063</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>71.62148835283607</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>43.75277596867835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
   </sheetData>
@@ -9641,16 +9643,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9720,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9799,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,16 +9877,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10036,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10115,19 +10117,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,16 +10196,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10273,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10349,10 +10351,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
@@ -10361,10 +10363,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10437,16 +10439,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10680,7 +10682,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10747,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
@@ -10838,7 +10840,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10984,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11063,19 +11065,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11157,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11297,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11382,19 +11384,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.7810665888924</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3201166964193</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>325.7302665460948</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>352.9775949976736</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>377.9232706671232</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>386.3499624405468</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>310.5220270411789</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>181.5231144958177</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>120.9163428665615</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>180.0672945116571</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>194.1430744895432</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>222.3928778332483</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>298.7994833955467</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>320.2881936428248</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>340.7783256038808</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.2851635814654</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.5804085752791</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>143.7557239137275</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>118.4922904900505</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>128.6923053808127</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>116.1164373187957</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>108.3907420886224</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>83.28266916190825</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>60.44385777682686</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.20505907805492</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>142.7303960292496</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>171.2119536202334</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>196.9886070063866</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>203.8478120748371</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>222.7422080863314</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>176.8202101288892</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.7299207027161</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.8792051073491</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2940460240396</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>119.6626979436241</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>117.481187571981</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>116.468272948343</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>139.0382042838705</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2743974328513</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>126.4976998526701</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>64.40640504208456</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.20926817710617</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.3406163025813</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>195.0638229623841</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9928143536933</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>257.3662542819027</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>223.1848682492398</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>257.5702232620028</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>196.7568803144489</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.6318782775066</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>240.8137633690779</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>254.1825106593025</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>95.34799015117208</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>258.4900792430943</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>32.68769407530763</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>98.19352266801555</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>105.052727736466</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>78.0251257905182</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>20.96191962100166</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>158.5711699435316</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>97.96179597607788</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>90.83679393913552</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>293.1781186410099</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>298.3160794034038</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>93.48923145867469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>32.88245982941847</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>49.54652553813612</v>
       </c>
       <c r="C27" t="n">
         <v>83.31186613690066</v>
@@ -24528,7 +24530,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>54.70835465592748</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>54.69651299210661</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>83.17807058309039</v>
       </c>
       <c r="U27" t="n">
         <v>136.5447492295597</v>
@@ -24601,10 +24603,10 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>50.26016298689662</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>34.91754591751083</v>
       </c>
       <c r="E28" t="n">
         <v>57.03732979515409</v>
@@ -24652,7 +24654,7 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>110.9589313165503</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
@@ -24661,7 +24663,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>169.5363402248598</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.5081696176536</v>
+        <v>269.0359145627791</v>
       </c>
       <c r="C29" t="n">
-        <v>228.0472197251806</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>217.457369574856</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>244.7046980264348</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>269.6503736958845</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>278.0770654693081</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>202.2491300699402</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>73.25021752457894</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.64344589532271</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>71.79439754041837</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>85.87017751830439</v>
+        <v>106.1091914524002</v>
       </c>
       <c r="U29" t="n">
-        <v>114.1199808620095</v>
+        <v>134.3589947961053</v>
       </c>
       <c r="V29" t="n">
-        <v>190.5265864243079</v>
+        <v>210.7656003584037</v>
       </c>
       <c r="W29" t="n">
-        <v>212.015296671586</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>232.5054286326421</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>249.0122666102266</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.30751160404037</v>
+        <v>49.54652553813612</v>
       </c>
       <c r="C30" t="n">
-        <v>35.48282694248877</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>10.21939351881178</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>20.41940840957398</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>7.84354034755691</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1178451173836663</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>34.45749905801085</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>62.93905664899464</v>
+        <v>83.17807058309039</v>
       </c>
       <c r="U30" t="n">
-        <v>88.71571003514785</v>
+        <v>108.9547239692436</v>
       </c>
       <c r="V30" t="n">
-        <v>95.5749151035983</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>114.4693111150926</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>68.54731315765051</v>
+        <v>92.07505810277596</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.45702373147739</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.60630813611033</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>30.02114905280087</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>11.38980097238539</v>
+        <v>31.62881490648114</v>
       </c>
       <c r="E31" t="n">
-        <v>9.208290600742203</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>8.195375977104277</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>30.76530731263179</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>25.00150046161261</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>18.22480288143132</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.06771933134252</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>86.79092599114529</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>90.71991738245453</v>
+        <v>110.9589313165503</v>
       </c>
       <c r="U31" t="n">
-        <v>149.0933573106639</v>
+        <v>172.6211022557894</v>
       </c>
       <c r="V31" t="n">
-        <v>114.911971278001</v>
+        <v>135.1509852120968</v>
       </c>
       <c r="W31" t="n">
-        <v>149.297326290764</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>88.48398334321018</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.35898130626782</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.5081696176536</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C32" t="n">
-        <v>228.0472197251806</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D32" t="n">
-        <v>217.457369574856</v>
+        <v>223.1349651757058</v>
       </c>
       <c r="E32" t="n">
-        <v>244.7046980264348</v>
+        <v>253.6710246383143</v>
       </c>
       <c r="F32" t="n">
-        <v>269.6503736958845</v>
+        <v>302.9179945570504</v>
       </c>
       <c r="G32" t="n">
-        <v>278.0770654693081</v>
+        <v>311.344686330474</v>
       </c>
       <c r="H32" t="n">
-        <v>202.2491300699402</v>
+        <v>235.5167509311061</v>
       </c>
       <c r="I32" t="n">
-        <v>73.25021752457894</v>
+        <v>106.5178383857449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.64344589532271</v>
+        <v>45.91106675648865</v>
       </c>
       <c r="S32" t="n">
-        <v>71.79439754041837</v>
+        <v>77.47199314126817</v>
       </c>
       <c r="T32" t="n">
-        <v>85.87017751830439</v>
+        <v>91.54777311915419</v>
       </c>
       <c r="U32" t="n">
-        <v>114.1199808620095</v>
+        <v>147.3876017231755</v>
       </c>
       <c r="V32" t="n">
-        <v>190.5265864243079</v>
+        <v>223.7942072854739</v>
       </c>
       <c r="W32" t="n">
-        <v>212.015296671586</v>
+        <v>245.282917532752</v>
       </c>
       <c r="X32" t="n">
-        <v>232.5054286326421</v>
+        <v>265.773049493808</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.0122666102266</v>
+        <v>282.2798874713926</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.30751160404037</v>
+        <v>38.27383821591986</v>
       </c>
       <c r="C33" t="n">
-        <v>35.48282694248877</v>
+        <v>68.75044780365471</v>
       </c>
       <c r="D33" t="n">
-        <v>10.21939351881178</v>
+        <v>43.48701437997772</v>
       </c>
       <c r="E33" t="n">
-        <v>20.41940840957398</v>
+        <v>26.09700401042377</v>
       </c>
       <c r="F33" t="n">
-        <v>7.84354034755691</v>
+        <v>41.11116120872285</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1178451173836663</v>
+        <v>33.3854659785496</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8.277393051835432</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.45749905801085</v>
+        <v>67.72511991917679</v>
       </c>
       <c r="T33" t="n">
-        <v>62.93905664899464</v>
+        <v>96.20667751016057</v>
       </c>
       <c r="U33" t="n">
-        <v>88.71571003514785</v>
+        <v>121.9833308963138</v>
       </c>
       <c r="V33" t="n">
-        <v>95.5749151035983</v>
+        <v>128.8425359647642</v>
       </c>
       <c r="W33" t="n">
-        <v>114.4693111150926</v>
+        <v>147.7369319762586</v>
       </c>
       <c r="X33" t="n">
-        <v>68.54731315765051</v>
+        <v>74.22490875850031</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.45702373147739</v>
+        <v>74.13461933232719</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.60630813611033</v>
+        <v>75.87392899727627</v>
       </c>
       <c r="C34" t="n">
-        <v>30.02114905280087</v>
+        <v>63.2887699139668</v>
       </c>
       <c r="D34" t="n">
-        <v>11.38980097238539</v>
+        <v>17.06739657323519</v>
       </c>
       <c r="E34" t="n">
-        <v>9.208290600742203</v>
+        <v>42.47591146190814</v>
       </c>
       <c r="F34" t="n">
-        <v>8.195375977104277</v>
+        <v>13.87297157795408</v>
       </c>
       <c r="G34" t="n">
-        <v>30.76530731263179</v>
+        <v>64.03292817379773</v>
       </c>
       <c r="H34" t="n">
-        <v>25.00150046161261</v>
+        <v>58.26912132277855</v>
       </c>
       <c r="I34" t="n">
-        <v>18.22480288143132</v>
+        <v>23.90239848228111</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.06771933134252</v>
+        <v>73.33534019250845</v>
       </c>
       <c r="S34" t="n">
-        <v>86.79092599114529</v>
+        <v>120.0585468523112</v>
       </c>
       <c r="T34" t="n">
-        <v>90.71991738245453</v>
+        <v>123.9875382436205</v>
       </c>
       <c r="U34" t="n">
-        <v>149.0933573106639</v>
+        <v>158.0596839225434</v>
       </c>
       <c r="V34" t="n">
-        <v>114.911971278001</v>
+        <v>148.179592139167</v>
       </c>
       <c r="W34" t="n">
-        <v>149.297326290764</v>
+        <v>182.56494715193</v>
       </c>
       <c r="X34" t="n">
-        <v>88.48398334321018</v>
+        <v>121.7516042043761</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.35898130626782</v>
+        <v>114.6266021674338</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.5081696176536</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C35" t="n">
-        <v>228.0472197251806</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D35" t="n">
-        <v>217.457369574856</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E35" t="n">
-        <v>244.7046980264348</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F35" t="n">
-        <v>269.6503736958845</v>
+        <v>275.3279692967343</v>
       </c>
       <c r="G35" t="n">
-        <v>278.0770654693081</v>
+        <v>311.344686330474</v>
       </c>
       <c r="H35" t="n">
-        <v>202.2491300699402</v>
+        <v>235.5167509311061</v>
       </c>
       <c r="I35" t="n">
-        <v>73.25021752457894</v>
+        <v>78.92781312542874</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.64344589532271</v>
+        <v>18.32104149617251</v>
       </c>
       <c r="S35" t="n">
-        <v>71.79439754041837</v>
+        <v>80.76072415229785</v>
       </c>
       <c r="T35" t="n">
-        <v>85.87017751830439</v>
+        <v>119.1377983794703</v>
       </c>
       <c r="U35" t="n">
-        <v>114.1199808620095</v>
+        <v>147.3876017231755</v>
       </c>
       <c r="V35" t="n">
-        <v>190.5265864243079</v>
+        <v>223.7942072854739</v>
       </c>
       <c r="W35" t="n">
-        <v>212.015296671586</v>
+        <v>245.282917532752</v>
       </c>
       <c r="X35" t="n">
-        <v>232.5054286326421</v>
+        <v>265.773049493808</v>
       </c>
       <c r="Y35" t="n">
-        <v>249.0122666102266</v>
+        <v>282.2798874713926</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.30751160404037</v>
+        <v>62.57513246520631</v>
       </c>
       <c r="C36" t="n">
-        <v>35.48282694248877</v>
+        <v>68.75044780365471</v>
       </c>
       <c r="D36" t="n">
-        <v>10.21939351881178</v>
+        <v>43.48701437997772</v>
       </c>
       <c r="E36" t="n">
-        <v>20.41940840957398</v>
+        <v>53.68702927073991</v>
       </c>
       <c r="F36" t="n">
-        <v>7.84354034755691</v>
+        <v>41.11116120872285</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1178451173836663</v>
+        <v>33.3854659785496</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>8.277393051835432</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.45749905801085</v>
+        <v>67.72511991917679</v>
       </c>
       <c r="T36" t="n">
-        <v>62.93905664899464</v>
+        <v>71.90538326087412</v>
       </c>
       <c r="U36" t="n">
-        <v>88.71571003514785</v>
+        <v>94.39330563599765</v>
       </c>
       <c r="V36" t="n">
-        <v>95.5749151035983</v>
+        <v>101.2525107044481</v>
       </c>
       <c r="W36" t="n">
-        <v>114.4693111150926</v>
+        <v>120.1469067159424</v>
       </c>
       <c r="X36" t="n">
-        <v>68.54731315765051</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.45702373147739</v>
+        <v>101.7246445926433</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.60630813611033</v>
+        <v>75.87392899727627</v>
       </c>
       <c r="C37" t="n">
-        <v>30.02114905280087</v>
+        <v>63.2887699139668</v>
       </c>
       <c r="D37" t="n">
-        <v>11.38980097238539</v>
+        <v>44.65742183355133</v>
       </c>
       <c r="E37" t="n">
-        <v>9.208290600742203</v>
+        <v>18.17461721262169</v>
       </c>
       <c r="F37" t="n">
-        <v>8.195375977104277</v>
+        <v>41.46299683827021</v>
       </c>
       <c r="G37" t="n">
-        <v>30.76530731263179</v>
+        <v>36.44290291348159</v>
       </c>
       <c r="H37" t="n">
-        <v>25.00150046161261</v>
+        <v>30.67909606246241</v>
       </c>
       <c r="I37" t="n">
-        <v>18.22480288143132</v>
+        <v>23.90239848228111</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.06771933134252</v>
+        <v>73.33534019250845</v>
       </c>
       <c r="S37" t="n">
-        <v>86.79092599114529</v>
+        <v>120.0585468523112</v>
       </c>
       <c r="T37" t="n">
-        <v>90.71991738245453</v>
+        <v>123.9875382436205</v>
       </c>
       <c r="U37" t="n">
-        <v>149.0933573106639</v>
+        <v>182.3609781718299</v>
       </c>
       <c r="V37" t="n">
-        <v>114.911971278001</v>
+        <v>148.179592139167</v>
       </c>
       <c r="W37" t="n">
-        <v>149.297326290764</v>
+        <v>182.56494715193</v>
       </c>
       <c r="X37" t="n">
-        <v>88.48398334321018</v>
+        <v>121.7516042043761</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.35898130626782</v>
+        <v>114.6266021674338</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.5081696176536</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C38" t="n">
-        <v>228.0472197251806</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D38" t="n">
-        <v>217.457369574856</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E38" t="n">
-        <v>244.7046980264348</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F38" t="n">
-        <v>269.6503736958845</v>
+        <v>278.6167003077639</v>
       </c>
       <c r="G38" t="n">
-        <v>278.0770654693081</v>
+        <v>283.7546610701579</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2491300699402</v>
+        <v>235.5167509311061</v>
       </c>
       <c r="I38" t="n">
-        <v>73.25021752457894</v>
+        <v>106.5178383857449</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>12.64344589532271</v>
+        <v>18.32104149617251</v>
       </c>
       <c r="S38" t="n">
-        <v>71.79439754041837</v>
+        <v>105.0620184015843</v>
       </c>
       <c r="T38" t="n">
-        <v>85.87017751830439</v>
+        <v>119.1377983794703</v>
       </c>
       <c r="U38" t="n">
-        <v>114.1199808620095</v>
+        <v>147.3876017231755</v>
       </c>
       <c r="V38" t="n">
-        <v>190.5265864243079</v>
+        <v>223.7942072854739</v>
       </c>
       <c r="W38" t="n">
-        <v>212.015296671586</v>
+        <v>245.282917532752</v>
       </c>
       <c r="X38" t="n">
-        <v>232.5054286326421</v>
+        <v>265.773049493808</v>
       </c>
       <c r="Y38" t="n">
-        <v>249.0122666102266</v>
+        <v>254.6898622110764</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.30751160404037</v>
+        <v>62.57513246520631</v>
       </c>
       <c r="C39" t="n">
-        <v>35.48282694248877</v>
+        <v>68.75044780365471</v>
       </c>
       <c r="D39" t="n">
-        <v>10.21939351881178</v>
+        <v>43.48701437997772</v>
       </c>
       <c r="E39" t="n">
-        <v>20.41940840957398</v>
+        <v>53.68702927073991</v>
       </c>
       <c r="F39" t="n">
-        <v>7.84354034755691</v>
+        <v>41.11116120872285</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1178451173836663</v>
+        <v>33.3854659785496</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.277393051835432</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.45749905801085</v>
+        <v>67.72511991917679</v>
       </c>
       <c r="T39" t="n">
-        <v>62.93905664899464</v>
+        <v>96.20667751016057</v>
       </c>
       <c r="U39" t="n">
-        <v>88.71571003514785</v>
+        <v>94.39330563599765</v>
       </c>
       <c r="V39" t="n">
-        <v>95.5749151035983</v>
+        <v>101.2525107044481</v>
       </c>
       <c r="W39" t="n">
-        <v>114.4693111150926</v>
+        <v>120.1469067159424</v>
       </c>
       <c r="X39" t="n">
-        <v>68.54731315765051</v>
+        <v>77.51363976952999</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.45702373147739</v>
+        <v>101.7246445926433</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.60630813611033</v>
+        <v>75.87392899727627</v>
       </c>
       <c r="C40" t="n">
-        <v>30.02114905280087</v>
+        <v>38.98747566468035</v>
       </c>
       <c r="D40" t="n">
-        <v>11.38980097238539</v>
+        <v>44.65742183355133</v>
       </c>
       <c r="E40" t="n">
-        <v>9.208290600742203</v>
+        <v>42.47591146190814</v>
       </c>
       <c r="F40" t="n">
-        <v>8.195375977104277</v>
+        <v>41.46299683827021</v>
       </c>
       <c r="G40" t="n">
-        <v>30.76530731263179</v>
+        <v>64.03292817379773</v>
       </c>
       <c r="H40" t="n">
-        <v>25.00150046161261</v>
+        <v>58.26912132277855</v>
       </c>
       <c r="I40" t="n">
-        <v>18.22480288143132</v>
+        <v>51.49242374259725</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.06771933134252</v>
+        <v>45.74531493219231</v>
       </c>
       <c r="S40" t="n">
-        <v>86.79092599114529</v>
+        <v>92.46852159199508</v>
       </c>
       <c r="T40" t="n">
-        <v>90.71991738245453</v>
+        <v>96.39751298330432</v>
       </c>
       <c r="U40" t="n">
-        <v>149.0933573106639</v>
+        <v>182.3609781718299</v>
       </c>
       <c r="V40" t="n">
-        <v>114.911971278001</v>
+        <v>148.179592139167</v>
       </c>
       <c r="W40" t="n">
-        <v>149.297326290764</v>
+        <v>182.56494715193</v>
       </c>
       <c r="X40" t="n">
-        <v>88.48398334321018</v>
+        <v>121.7516042043761</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.35898130626782</v>
+        <v>114.6266021674338</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.4983974269841</v>
+        <v>329.8211967686905</v>
       </c>
       <c r="C41" t="n">
-        <v>253.0374475345111</v>
+        <v>339.9502721365336</v>
       </c>
       <c r="D41" t="n">
-        <v>242.4475973841865</v>
+        <v>329.360421986209</v>
       </c>
       <c r="E41" t="n">
-        <v>269.6949258357653</v>
+        <v>356.6077504377878</v>
       </c>
       <c r="F41" t="n">
-        <v>294.640601505215</v>
+        <v>381.5534261072374</v>
       </c>
       <c r="G41" t="n">
-        <v>303.0672932786386</v>
+        <v>362.3900926203449</v>
       </c>
       <c r="H41" t="n">
-        <v>227.2393578792707</v>
+        <v>314.1521824812932</v>
       </c>
       <c r="I41" t="n">
-        <v>98.24044533390945</v>
+        <v>160.8519756866455</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.63367370465322</v>
+        <v>124.5464983066757</v>
       </c>
       <c r="S41" t="n">
-        <v>96.78462534974888</v>
+        <v>183.6974499517713</v>
       </c>
       <c r="T41" t="n">
-        <v>110.8604053276349</v>
+        <v>197.7732299296574</v>
       </c>
       <c r="U41" t="n">
-        <v>139.11020867134</v>
+        <v>226.0230332733625</v>
       </c>
       <c r="V41" t="n">
-        <v>215.5168142336385</v>
+        <v>302.4296388356609</v>
       </c>
       <c r="W41" t="n">
-        <v>237.0055244809166</v>
+        <v>323.918349082939</v>
       </c>
       <c r="X41" t="n">
-        <v>257.4956564419726</v>
+        <v>344.408481043995</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0024944195571</v>
+        <v>333.3252937612634</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.29773941337088</v>
+        <v>113.6205387550772</v>
       </c>
       <c r="C42" t="n">
-        <v>60.47305475181928</v>
+        <v>123.0845851045553</v>
       </c>
       <c r="D42" t="n">
-        <v>35.20962132814229</v>
+        <v>122.1224459301647</v>
       </c>
       <c r="E42" t="n">
-        <v>45.40963621890448</v>
+        <v>132.3224608209269</v>
       </c>
       <c r="F42" t="n">
-        <v>32.83376815688742</v>
+        <v>92.15656749859373</v>
       </c>
       <c r="G42" t="n">
-        <v>25.10807292671417</v>
+        <v>112.0208975287366</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>86.91282460202245</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>64.07401321694107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>74.83521451816912</v>
       </c>
       <c r="S42" t="n">
-        <v>59.44772686734136</v>
+        <v>146.3605514693638</v>
       </c>
       <c r="T42" t="n">
-        <v>87.92928445832514</v>
+        <v>174.8421090603476</v>
       </c>
       <c r="U42" t="n">
-        <v>113.7059378444784</v>
+        <v>200.6187624465008</v>
       </c>
       <c r="V42" t="n">
-        <v>120.5651429129288</v>
+        <v>207.4779675149513</v>
       </c>
       <c r="W42" t="n">
-        <v>139.4595389244232</v>
+        <v>226.3723635264456</v>
       </c>
       <c r="X42" t="n">
-        <v>93.53754096698101</v>
+        <v>152.8603403086873</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.4472515408079</v>
+        <v>180.3600761428303</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.59653594544083</v>
+        <v>154.5093605474633</v>
       </c>
       <c r="C43" t="n">
-        <v>55.01137686213137</v>
+        <v>141.9242014641538</v>
       </c>
       <c r="D43" t="n">
-        <v>36.38002878171589</v>
+        <v>123.2928533837383</v>
       </c>
       <c r="E43" t="n">
-        <v>34.19851841007271</v>
+        <v>121.1113430120952</v>
       </c>
       <c r="F43" t="n">
-        <v>33.18560378643478</v>
+        <v>92.5084031281411</v>
       </c>
       <c r="G43" t="n">
-        <v>55.7555351219623</v>
+        <v>142.6683597239847</v>
       </c>
       <c r="H43" t="n">
-        <v>49.99172827094311</v>
+        <v>136.9045528729656</v>
       </c>
       <c r="I43" t="n">
-        <v>43.21503069076182</v>
+        <v>130.1278552927843</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.73526623291232</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>60.83942361722038</v>
       </c>
       <c r="R43" t="n">
-        <v>65.05794714067302</v>
+        <v>151.9707717426955</v>
       </c>
       <c r="S43" t="n">
-        <v>111.7811538004758</v>
+        <v>198.6939784024983</v>
       </c>
       <c r="T43" t="n">
-        <v>115.710145191785</v>
+        <v>202.6229697938075</v>
       </c>
       <c r="U43" t="n">
-        <v>174.0835851199944</v>
+        <v>260.9964097220169</v>
       </c>
       <c r="V43" t="n">
-        <v>139.9021990873316</v>
+        <v>226.815023689354</v>
       </c>
       <c r="W43" t="n">
-        <v>174.2875541000946</v>
+        <v>233.6103534418009</v>
       </c>
       <c r="X43" t="n">
-        <v>113.4742111525407</v>
+        <v>200.3870357545632</v>
       </c>
       <c r="Y43" t="n">
-        <v>106.3492091155983</v>
+        <v>165.6720084573047</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>357.4112220290066</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>339.9502721365336</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>329.360421986209</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>356.6077504377878</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>381.5534261072374</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>389.9801178806611</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>314.1521824812932</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>157.5632446756158</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>100.2452040573892</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>156.1074246914552</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>170.1832046693412</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>226.0230332733625</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>302.4296388356609</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.918349082939</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>344.408481043995</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>360.9153190215796</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>141.2105640153933</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>147.3858793538417</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>122.1224459301647</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>104.7324355606108</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>119.7465927589099</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>112.0208975287366</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>62.611530352736</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>64.07401321694107</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>47.24518925785299</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>146.3605514693638</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>174.8421090603476</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>200.6187624465008</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>207.4779675149513</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>226.3723635264456</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>180.4503655690035</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>152.7700508825142</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>126.9193352871472</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>114.3341762038377</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>95.70282812342221</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>121.1113430120952</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>120.0984283884572</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>142.6683597239847</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>136.9045528729656</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>130.1278552927843</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>68.03656048219877</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>60.83942361722038</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>151.9707717426955</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>198.6939784024983</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>202.6229697938075</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.9964097220169</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>226.815023689354</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>261.200378702117</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3870357545632</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>168.9607394683343</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>322319.4713698314</v>
+        <v>430334.8664620026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437222.5661184737</v>
+        <v>430334.8664620026</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>437222.5661184737</v>
+        <v>448917.6107911498</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>437222.5661184737</v>
+        <v>448917.6107911498</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>437222.5661184737</v>
+        <v>468594.1547591002</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430334.8664620026</v>
+        <v>450011.4104299531</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510708.2590456648</v>
+        <v>450011.4104299531</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>510708.2590456648</v>
+        <v>475010.4411959595</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510708.2590456648</v>
+        <v>475010.4411959595</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510708.2590456648</v>
+        <v>475010.4411959595</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469309.447656728</v>
+        <v>335505.2974108576</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>268768.5138286159</v>
+        <v>335505.2974108575</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>286416.0877845131</v>
+        <v>430436.614574075</v>
       </c>
       <c r="F2" t="n">
-        <v>439620.2141160361</v>
+        <v>430436.614574075</v>
       </c>
       <c r="G2" t="n">
-        <v>439620.2141160361</v>
+        <v>455213.6070129377</v>
       </c>
       <c r="H2" t="n">
-        <v>439620.2141160358</v>
+        <v>455213.6070129378</v>
       </c>
       <c r="I2" t="n">
-        <v>439620.2141160358</v>
+        <v>470846.0270373524</v>
       </c>
       <c r="J2" t="n">
-        <v>430436.6145740751</v>
+        <v>446069.034598489</v>
       </c>
       <c r="K2" t="n">
-        <v>537601.1380189578</v>
+        <v>446069.034598489</v>
       </c>
       <c r="L2" t="n">
-        <v>537601.1380189578</v>
+        <v>479401.0756198307</v>
       </c>
       <c r="M2" t="n">
-        <v>537601.1380189578</v>
+        <v>479401.0756198309</v>
       </c>
       <c r="N2" t="n">
-        <v>537601.1380189578</v>
+        <v>479401.075619831</v>
       </c>
       <c r="O2" t="n">
-        <v>482402.7228337082</v>
+        <v>293394.2172396954</v>
       </c>
       <c r="P2" t="n">
-        <v>215014.8110628928</v>
+        <v>293394.2172396952</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23162.22005967057</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>51525.12403366765</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8608.961040982445</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7336.767107248528</v>
       </c>
       <c r="J3" t="n">
-        <v>19992.18224746441</v>
+        <v>62908.34524014962</v>
       </c>
       <c r="K3" t="n">
-        <v>89788.35538919717</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20258.0957075792</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>148260.9034376801</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="F4" t="n">
-        <v>235704.7745889019</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="G4" t="n">
-        <v>235704.7745889019</v>
+        <v>244604.9698508521</v>
       </c>
       <c r="H4" t="n">
-        <v>235704.7745889019</v>
+        <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>235704.7745889019</v>
+        <v>252607.0155662678</v>
       </c>
       <c r="J4" t="n">
-        <v>230463.0783351474</v>
+        <v>238465.1240505631</v>
       </c>
       <c r="K4" t="n">
-        <v>291629.059986441</v>
+        <v>238465.1240505632</v>
       </c>
       <c r="L4" t="n">
-        <v>291629.059986441</v>
+        <v>257489.9556270329</v>
       </c>
       <c r="M4" t="n">
-        <v>291629.059986441</v>
+        <v>257489.9556270329</v>
       </c>
       <c r="N4" t="n">
-        <v>291629.059986441</v>
+        <v>257489.955627033</v>
       </c>
       <c r="O4" t="n">
-        <v>260123.6219751579</v>
+        <v>151323.3650337779</v>
       </c>
       <c r="P4" t="n">
-        <v>107507.4055314464</v>
+        <v>151323.3650337779</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2434.030847745557</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8420.168959378556</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8420.168959378556</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>10097.64249520578</v>
       </c>
       <c r="J5" t="n">
-        <v>7515.485527185614</v>
+        <v>9192.959063012835</v>
       </c>
       <c r="K5" t="n">
-        <v>11536.42502322063</v>
+        <v>9192.959063012835</v>
       </c>
       <c r="L5" t="n">
-        <v>11536.42502322063</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="M5" t="n">
-        <v>11536.42502322063</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="N5" t="n">
-        <v>11536.42502322063</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="O5" t="n">
-        <v>9435.521561518022</v>
+        <v>3806.320845877816</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3806.320845877816</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>333248.7481680734</v>
       </c>
       <c r="C6" t="n">
-        <v>333248.7481680731</v>
+        <v>333248.748168073</v>
       </c>
       <c r="D6" t="n">
         <v>333248.7481680731</v>
       </c>
       <c r="E6" t="n">
-        <v>112558.9334394168</v>
+        <v>120940.74443061</v>
       </c>
       <c r="F6" t="n">
-        <v>144541.7025802379</v>
+        <v>192458.050711742</v>
       </c>
       <c r="G6" t="n">
-        <v>196066.8266139056</v>
+        <v>193579.5071617246</v>
       </c>
       <c r="H6" t="n">
-        <v>196066.8266139053</v>
+        <v>202188.4682027071</v>
       </c>
       <c r="I6" t="n">
-        <v>196066.8266139053</v>
+        <v>200804.6018686302</v>
       </c>
       <c r="J6" t="n">
-        <v>172465.8684642776</v>
+        <v>135502.6062447634</v>
       </c>
       <c r="K6" t="n">
-        <v>144647.297620099</v>
+        <v>198410.951484913</v>
       </c>
       <c r="L6" t="n">
-        <v>234435.6530092962</v>
+        <v>191235.9013443481</v>
       </c>
       <c r="M6" t="n">
-        <v>234435.6530092962</v>
+        <v>211493.9970519275</v>
       </c>
       <c r="N6" t="n">
-        <v>234435.6530092962</v>
+        <v>211493.9970519275</v>
       </c>
       <c r="O6" t="n">
-        <v>212843.5792970323</v>
+        <v>138264.5313600397</v>
       </c>
       <c r="P6" t="n">
-        <v>107507.4055314464</v>
+        <v>138264.5313600395</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="M2" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="N2" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="3">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>64.40640504208456</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.99022780933052</v>
+        <v>78.63543155018702</v>
       </c>
       <c r="K2" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.322619634474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>64.40640504208456</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.99022780933052</v>
+        <v>78.63543155018702</v>
       </c>
       <c r="P2" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28135,28 +28137,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28247,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -28290,31 +28292,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.95277507458822</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28484,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28532,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="19">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -28767,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="22">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -29004,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29241,28 +29243,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="26">
@@ -29457,7 +29459,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29669,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29876,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29949,31 +29951,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>88.05219210260454</v>
       </c>
       <c r="R34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30113,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y36" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30350,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="40">
@@ -30378,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="C40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="D40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="E40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="F40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="G40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="H40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="I40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -30426,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="S40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="T40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="U40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="V40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="W40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="X40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.225672045827</v>
+        <v>103.958051184661</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="R43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.2354442364965</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="45">
@@ -30773,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,37 +30893,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>25.32261963447401</v>
       </c>
     </row>
   </sheetData>
@@ -36361,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36993,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37232,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1910366.467749502</v>
+        <v>1856257.101132545</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065031</v>
+        <v>5022325.612443957</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11746303.32766474</v>
+        <v>11756045.32555294</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5880313.83616939</v>
+        <v>5889186.314877852</v>
       </c>
     </row>
     <row r="11">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>24.30129424928645</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Y23" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="F24" t="n">
-        <v>12.22368416543312</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>18.30197654950644</v>
       </c>
       <c r="H24" t="n">
         <v>12.07761008385333</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V24" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.59002526031614</v>
+        <v>30.37958663335978</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="E27" t="n">
-        <v>13.54009294805839</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>27.59002526031614</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>7.540775248278393</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.41703936810208</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="T31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="E32" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.30129424928645</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>27.59002526031614</v>
+        <v>30.37958663335978</v>
       </c>
     </row>
     <row r="34">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U34" t="n">
-        <v>24.30129424928645</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.59002526031614</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="S35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>11.33052086042662</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>19.04906577293317</v>
       </c>
       <c r="T36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.59002526031614</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>30.3795866333598</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.30129424928645</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="H45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>30.37958663335978</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.30129424928645</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C23" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D23" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="L23" t="n">
-        <v>29.52132702853827</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="M23" t="n">
-        <v>56.83545203625125</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N23" t="n">
-        <v>84.14957704396423</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O23" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3601010412646</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="S23" t="n">
-        <v>110.3601010412646</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="T23" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="U23" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="V23" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="W23" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="X23" t="n">
-        <v>82.49138865710684</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="Y23" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="C24" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="D24" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="E24" t="n">
-        <v>26.7539638887914</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="F24" t="n">
-        <v>14.40680816613169</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="G24" t="n">
-        <v>14.40680816613169</v>
+        <v>14.95887831909021</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L24" t="n">
-        <v>28.41772601812563</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="M24" t="n">
-        <v>55.73185102583861</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="N24" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P24" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T24" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U24" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V24" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="W24" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="X24" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="Y24" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C25" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D25" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="E25" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="F25" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.162387753489785</v>
       </c>
       <c r="K25" t="n">
-        <v>4.078449383226349</v>
+        <v>4.162387753489785</v>
       </c>
       <c r="L25" t="n">
-        <v>31.39257439093933</v>
+        <v>31.47651276120276</v>
       </c>
       <c r="M25" t="n">
-        <v>58.7066993986523</v>
+        <v>65.62250591177747</v>
       </c>
       <c r="N25" t="n">
-        <v>86.02082440636528</v>
+        <v>99.76849906235218</v>
       </c>
       <c r="O25" t="n">
-        <v>110.3601010412646</v>
+        <v>124.1077756972515</v>
       </c>
       <c r="P25" t="n">
-        <v>110.3601010412646</v>
+        <v>124.1077756972515</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R25" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S25" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T25" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U25" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V25" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W25" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X25" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="C26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F26" t="n">
-        <v>57.94462678914073</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G26" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H26" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K26" t="n">
-        <v>29.52132702853827</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="L26" t="n">
-        <v>55.73185102583861</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="M26" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="N26" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="O26" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R26" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="S26" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="T26" t="n">
-        <v>82.49138865710684</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="U26" t="n">
-        <v>82.49138865710684</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="V26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="W26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="X26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.88406358452063</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C27" t="n">
-        <v>15.88406358452063</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D27" t="n">
-        <v>15.88406358452063</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K27" t="n">
-        <v>28.41772601812563</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L27" t="n">
-        <v>55.73185102583861</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="M27" t="n">
-        <v>83.04597603355158</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="N27" t="n">
-        <v>110.3601010412646</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="O27" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R27" t="n">
-        <v>99.49020073699378</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S27" t="n">
-        <v>71.62148835283607</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T27" t="n">
-        <v>43.75277596867835</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="U27" t="n">
-        <v>43.75277596867835</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="V27" t="n">
-        <v>43.75277596867835</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="W27" t="n">
-        <v>43.75277596867835</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="X27" t="n">
-        <v>43.75277596867835</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.75277596867835</v>
+        <v>72.43786242084984</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="C28" t="n">
-        <v>26.7539638887914</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="D28" t="n">
-        <v>2.207202020825291</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="E28" t="n">
-        <v>2.207202020825291</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="F28" t="n">
-        <v>2.207202020825291</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207202020825291</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="H28" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="I28" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K28" t="n">
-        <v>4.078449383226349</v>
+        <v>18.01822074542907</v>
       </c>
       <c r="L28" t="n">
-        <v>31.39257439093933</v>
+        <v>45.33234575314204</v>
       </c>
       <c r="M28" t="n">
-        <v>58.7066993986523</v>
+        <v>79.47833890371675</v>
       </c>
       <c r="N28" t="n">
-        <v>86.02082440636528</v>
+        <v>113.6243320542914</v>
       </c>
       <c r="O28" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P28" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R28" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S28" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T28" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U28" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V28" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W28" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X28" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="E29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="F29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="H29" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="I29" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K29" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L29" t="n">
-        <v>29.52132702853827</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="M29" t="n">
-        <v>56.83545203625125</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N29" t="n">
-        <v>83.04597603355158</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O29" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R29" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S29" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T29" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U29" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V29" t="n">
-        <v>26.7539638887914</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W29" t="n">
-        <v>26.7539638887914</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X29" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="Y29" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.207202020825291</v>
+        <v>95.507368870427</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>60.66807374689398</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>60.66807374689398</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>60.66807374689398</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>60.66807374689398</v>
       </c>
       <c r="G30" t="n">
-        <v>2.207202020825291</v>
+        <v>25.82877862336097</v>
       </c>
       <c r="H30" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L30" t="n">
-        <v>29.52132702853827</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="M30" t="n">
-        <v>56.83545203625125</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="N30" t="n">
-        <v>83.04597603355158</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="O30" t="n">
-        <v>110.3601010412646</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="P30" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T30" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U30" t="n">
-        <v>54.62267627294912</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="V30" t="n">
-        <v>54.62267627294912</v>
+        <v>130.34666399396</v>
       </c>
       <c r="W30" t="n">
-        <v>54.62267627294912</v>
+        <v>95.507368870427</v>
       </c>
       <c r="X30" t="n">
-        <v>30.07591440498301</v>
+        <v>95.507368870427</v>
       </c>
       <c r="Y30" t="n">
-        <v>30.07591440498301</v>
+        <v>95.507368870427</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="C31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.761845168993609</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.761845168993609</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>18.01822074542907</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>45.33234575314204</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>79.47833890371675</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>113.6243320542914</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P31" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R31" t="n">
-        <v>110.3601010412646</v>
+        <v>111.2797305395927</v>
       </c>
       <c r="S31" t="n">
-        <v>110.3601010412646</v>
+        <v>76.44043541605964</v>
       </c>
       <c r="T31" t="n">
-        <v>82.49138865710684</v>
+        <v>76.44043541605964</v>
       </c>
       <c r="U31" t="n">
-        <v>57.94462678914073</v>
+        <v>76.44043541605964</v>
       </c>
       <c r="V31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="W31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="X31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.07591440498301</v>
+        <v>41.60114029252662</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="C32" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="D32" t="n">
-        <v>26.7539638887914</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="E32" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="F32" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="G32" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="H32" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="I32" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K32" t="n">
-        <v>29.52132702853827</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L32" t="n">
-        <v>56.83545203625125</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="M32" t="n">
-        <v>56.83545203625125</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="N32" t="n">
-        <v>56.83545203625125</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="O32" t="n">
-        <v>84.14957704396423</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S32" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T32" t="n">
-        <v>54.62267627294912</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U32" t="n">
-        <v>54.62267627294912</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="V32" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W32" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="X32" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="Y32" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.07591440498301</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C33" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D33" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="M33" t="n">
-        <v>2.207202020825291</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N33" t="n">
-        <v>29.52132702853827</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O33" t="n">
-        <v>55.73185102583861</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="P33" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="V33" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="W33" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X33" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.62267627294912</v>
+        <v>72.43786242084984</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="C34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D34" t="n">
-        <v>57.94462678914073</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E34" t="n">
-        <v>57.94462678914073</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F34" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G34" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H34" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>18.01822074542907</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>45.33234575314204</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>79.47833890371675</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>113.6243320542914</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4888536788635</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R34" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S34" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T34" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U34" t="n">
-        <v>85.81333917329844</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="V34" t="n">
-        <v>85.81333917329844</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="W34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="X34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.94462678914073</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="C35" t="n">
-        <v>57.94462678914073</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="D35" t="n">
-        <v>57.94462678914073</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="E35" t="n">
-        <v>57.94462678914073</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="F35" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G35" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H35" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K35" t="n">
-        <v>28.41772601812563</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L35" t="n">
-        <v>28.41772601812563</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="M35" t="n">
-        <v>55.73185102583861</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N35" t="n">
-        <v>83.04597603355158</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O35" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R35" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="S35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="T35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X35" t="n">
-        <v>57.94462678914073</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.94462678914073</v>
+        <v>68.28501844212468</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="C36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="D36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="E36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K36" t="n">
-        <v>29.52132702853827</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="L36" t="n">
-        <v>56.83545203625125</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="M36" t="n">
-        <v>84.14957704396423</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="N36" t="n">
-        <v>84.14957704396423</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="O36" t="n">
-        <v>84.14957704396423</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="P36" t="n">
-        <v>110.3601010412646</v>
+        <v>105.1972516255079</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R36" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S36" t="n">
-        <v>110.3601010412646</v>
+        <v>118.7221281104704</v>
       </c>
       <c r="T36" t="n">
-        <v>85.81333917329844</v>
+        <v>118.7221281104704</v>
       </c>
       <c r="U36" t="n">
-        <v>57.94462678914073</v>
+        <v>83.88283298693733</v>
       </c>
       <c r="V36" t="n">
-        <v>30.07591440498301</v>
+        <v>49.04353786340432</v>
       </c>
       <c r="W36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="X36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.207202020825291</v>
+        <v>14.20424273987131</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.3601010412646</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C37" t="n">
-        <v>110.3601010412646</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D37" t="n">
-        <v>110.3601010412646</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E37" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F37" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G37" t="n">
-        <v>57.94462678914073</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H37" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K37" t="n">
-        <v>4.078449383226349</v>
+        <v>18.01822074542907</v>
       </c>
       <c r="L37" t="n">
-        <v>31.39257439093933</v>
+        <v>45.33234575314204</v>
       </c>
       <c r="M37" t="n">
-        <v>58.7066993986523</v>
+        <v>79.47833890371675</v>
       </c>
       <c r="N37" t="n">
-        <v>86.02082440636528</v>
+        <v>113.6243320542914</v>
       </c>
       <c r="O37" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P37" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R37" t="n">
-        <v>110.3601010412646</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="S37" t="n">
-        <v>110.3601010412646</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="T37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="U37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="V37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="W37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="X37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="C38" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D38" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E38" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F38" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G38" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H38" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I38" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K38" t="n">
-        <v>29.52132702853827</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L38" t="n">
-        <v>56.83545203625125</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="M38" t="n">
-        <v>84.14957704396423</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N38" t="n">
-        <v>84.14957704396423</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O38" t="n">
-        <v>84.14957704396423</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R38" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="S38" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="T38" t="n">
-        <v>82.49138865710684</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="U38" t="n">
-        <v>82.49138865710684</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="V38" t="n">
-        <v>82.49138865710684</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="W38" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="X38" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="Y38" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.207202020825291</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="C39" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D39" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="E39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K39" t="n">
-        <v>29.52132702853827</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="L39" t="n">
-        <v>55.73185102583861</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="M39" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="N39" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="O39" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P39" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="T39" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U39" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V39" t="n">
-        <v>54.62267627294912</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W39" t="n">
-        <v>26.7539638887914</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X39" t="n">
-        <v>2.207202020825291</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.207202020825291</v>
+        <v>103.1243135656577</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J40" t="n">
-        <v>4.078449383226349</v>
+        <v>10.22955800058691</v>
       </c>
       <c r="K40" t="n">
-        <v>4.078449383226349</v>
+        <v>18.01822074542907</v>
       </c>
       <c r="L40" t="n">
-        <v>31.39257439093933</v>
+        <v>45.33234575314204</v>
       </c>
       <c r="M40" t="n">
-        <v>58.7066993986523</v>
+        <v>79.47833890371675</v>
       </c>
       <c r="N40" t="n">
-        <v>86.02082440636528</v>
+        <v>113.6243320542914</v>
       </c>
       <c r="O40" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P40" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R40" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S40" t="n">
-        <v>54.62267627294912</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T40" t="n">
-        <v>26.7539638887914</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U40" t="n">
-        <v>26.7539638887914</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="V40" t="n">
-        <v>26.7539638887914</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="W40" t="n">
-        <v>26.7539638887914</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="X40" t="n">
-        <v>26.7539638887914</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="C41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G41" t="n">
-        <v>26.7539638887914</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H41" t="n">
-        <v>26.7539638887914</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K41" t="n">
-        <v>2.207202020825291</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="L41" t="n">
-        <v>29.52132702853827</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="M41" t="n">
-        <v>29.52132702853827</v>
+        <v>103.817615538616</v>
       </c>
       <c r="N41" t="n">
-        <v>56.83545203625125</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="O41" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>107.2771575443828</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>72.43786242084984</v>
       </c>
       <c r="V41" t="n">
-        <v>110.3601010412646</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="W41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="X41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.49138865710684</v>
+        <v>2.759272173783815</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.62267627294912</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="C42" t="n">
-        <v>30.07591440498301</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="D42" t="n">
-        <v>30.07591440498301</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="E42" t="n">
-        <v>30.07591440498301</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="F42" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207202020825291</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="H42" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I42" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K42" t="n">
-        <v>29.52132702853827</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="L42" t="n">
-        <v>56.83545203625125</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="M42" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="N42" t="n">
-        <v>83.04597603355158</v>
+        <v>103.817615538616</v>
       </c>
       <c r="O42" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R42" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S42" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="T42" t="n">
-        <v>110.3601010412646</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="U42" t="n">
-        <v>110.3601010412646</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="V42" t="n">
-        <v>110.3601010412646</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="W42" t="n">
-        <v>110.3601010412646</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="X42" t="n">
-        <v>82.49138865710684</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.49138865710684</v>
+        <v>33.44572331859167</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="C43" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="D43" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="E43" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="F43" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="G43" t="n">
-        <v>26.7539638887914</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="H43" t="n">
-        <v>26.7539638887914</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="I43" t="n">
-        <v>26.7539638887914</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="J43" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L43" t="n">
-        <v>31.39257439093933</v>
+        <v>30.07339718149679</v>
       </c>
       <c r="M43" t="n">
-        <v>58.7066993986523</v>
+        <v>64.2193903320715</v>
       </c>
       <c r="N43" t="n">
-        <v>86.02082440636528</v>
+        <v>98.36538348264619</v>
       </c>
       <c r="O43" t="n">
-        <v>110.3601010412646</v>
+        <v>122.7046601175455</v>
       </c>
       <c r="P43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U43" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="V43" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W43" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X43" t="n">
-        <v>82.49138865710684</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28501844212468</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.07591440498301</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="C44" t="n">
-        <v>30.07591440498301</v>
+        <v>33.44572331859167</v>
       </c>
       <c r="D44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K44" t="n">
-        <v>29.52132702853827</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="L44" t="n">
-        <v>55.73185102583861</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="M44" t="n">
-        <v>83.04597603355158</v>
+        <v>35.52562923746662</v>
       </c>
       <c r="N44" t="n">
-        <v>83.04597603355158</v>
+        <v>69.67162238804133</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>103.817615538616</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R44" t="n">
-        <v>85.81333917329844</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S44" t="n">
-        <v>57.94462678914073</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T44" t="n">
-        <v>30.07591440498301</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="U44" t="n">
-        <v>30.07591440498301</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="V44" t="n">
-        <v>30.07591440498301</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="W44" t="n">
-        <v>30.07591440498301</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="X44" t="n">
-        <v>30.07591440498301</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.07591440498301</v>
+        <v>68.28501844212468</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="C45" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="D45" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="E45" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="F45" t="n">
-        <v>26.7539638887914</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="G45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>36.90526532435852</v>
       </c>
       <c r="L45" t="n">
-        <v>2.207202020825291</v>
+        <v>71.05125847493322</v>
       </c>
       <c r="M45" t="n">
-        <v>29.52132702853827</v>
+        <v>103.817615538616</v>
       </c>
       <c r="N45" t="n">
-        <v>56.83545203625125</v>
+        <v>103.817615538616</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="P45" t="n">
-        <v>83.04597603355158</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R45" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S45" t="n">
-        <v>82.49138865710684</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710684</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="X45" t="n">
-        <v>82.49138865710684</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.62267627294912</v>
+        <v>37.59856729731683</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.94462678914073</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="C46" t="n">
-        <v>30.07591440498301</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>2.759272173783815</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.07339718149679</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>64.2193903320715</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>98.36538348264619</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>122.7046601175455</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3601010412646</v>
+        <v>137.9636086891907</v>
       </c>
       <c r="T46" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="U46" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="V46" t="n">
-        <v>110.3601010412646</v>
+        <v>103.1243135656577</v>
       </c>
       <c r="W46" t="n">
-        <v>110.3601010412646</v>
+        <v>68.28501844212468</v>
       </c>
       <c r="X46" t="n">
-        <v>110.3601010412646</v>
+        <v>37.59856729731683</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.81333917329844</v>
+        <v>2.759272173783815</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>253.1871814123369</v>
       </c>
       <c r="L23" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>257.0030888569071</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O23" t="n">
-        <v>256.5734881866366</v>
+        <v>264.5891135939844</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>165.029656544824</v>
+        <v>171.6517101472306</v>
       </c>
       <c r="M24" t="n">
-        <v>169.7240591823345</v>
+        <v>176.624936094316</v>
       </c>
       <c r="N24" t="n">
-        <v>158.9317373436494</v>
+        <v>165.832614255631</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>177.0871466167421</v>
       </c>
       <c r="P24" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9804,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>247.6798763052967</v>
+        <v>254.5807532172782</v>
       </c>
       <c r="L26" t="n">
-        <v>262.2416917349371</v>
+        <v>270.2573171422849</v>
       </c>
       <c r="M26" t="n">
-        <v>257.9362584875889</v>
+        <v>263.4435635946291</v>
       </c>
       <c r="N26" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>173.0452819521719</v>
       </c>
       <c r="M27" t="n">
-        <v>169.7240591823345</v>
+        <v>176.624936094316</v>
       </c>
       <c r="N27" t="n">
-        <v>158.9317373436494</v>
+        <v>165.832614255631</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>175.6935748118008</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10041,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10117,19 +10117,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>263.3564402303034</v>
+        <v>268.8637453373436</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>255.8883403615407</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>264.5891135939844</v>
       </c>
       <c r="P29" t="n">
-        <v>258.8230210155857</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>169.7240591823345</v>
+        <v>176.624936094316</v>
       </c>
       <c r="N30" t="n">
-        <v>157.8169888482831</v>
+        <v>165.832614255631</v>
       </c>
       <c r="O30" t="n">
-        <v>170.1862697047606</v>
+        <v>177.0871466167421</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>167.0717377816866</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10278,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>270.2573171422849</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>264.8371353995704</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O32" t="n">
-        <v>257.6882366820029</v>
+        <v>263.1955417890431</v>
       </c>
       <c r="P32" t="n">
-        <v>257.7082725202193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,19 +10436,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>175.2313642893747</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>165.832614255631</v>
       </c>
       <c r="O33" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>168.4653095866279</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.5717993463377</v>
+        <v>174.4726762583192</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10515,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>257.9362584875889</v>
+        <v>263.4435635946291</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O35" t="n">
-        <v>257.6882366820029</v>
+        <v>264.5891135939844</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.4314642346751</v>
+        <v>172.3323411466567</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1444050401903</v>
+        <v>173.0452819521719</v>
       </c>
       <c r="M36" t="n">
-        <v>169.7240591823345</v>
+        <v>176.624936094316</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>173.0791044533779</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>257.9362584875889</v>
+        <v>263.4435635946291</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>264.5891135939844</v>
       </c>
       <c r="P38" t="n">
-        <v>257.7082725202193</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.4314642346751</v>
+        <v>172.3323411466567</v>
       </c>
       <c r="L39" t="n">
-        <v>165.029656544824</v>
+        <v>173.0452819521719</v>
       </c>
       <c r="M39" t="n">
-        <v>169.7240591823345</v>
+        <v>175.2313642893747</v>
       </c>
       <c r="N39" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>177.0871466167421</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10989,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>253.1871814123369</v>
       </c>
       <c r="L41" t="n">
-        <v>263.3564402303034</v>
+        <v>270.2573171422849</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>264.8371353995704</v>
       </c>
       <c r="N41" t="n">
-        <v>257.0030888569071</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O41" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>165.4314642346751</v>
+        <v>172.3323411466567</v>
       </c>
       <c r="L42" t="n">
-        <v>166.1444050401903</v>
+        <v>173.0452819521719</v>
       </c>
       <c r="M42" t="n">
-        <v>168.6093106869681</v>
+        <v>175.2313642893747</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>177.0871466167421</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11226,10 +11226,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>253.1871814123369</v>
       </c>
       <c r="L44" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>263.9039657688886</v>
       </c>
       <c r="O44" t="n">
-        <v>257.6882366820029</v>
+        <v>264.5891135939844</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>265.7238979275672</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>172.3323411466567</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>173.0452819521719</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>175.2313642893747</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>169.0715212093943</v>
+        <v>177.0871466167421</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11463,10 +11463,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>173.4166861199027</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>162.1764466375309</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -24208,13 +24208,13 @@
         <v>282.5760075108374</v>
       </c>
       <c r="C23" t="n">
-        <v>240.8137633690779</v>
+        <v>230.6241554460667</v>
       </c>
       <c r="D23" t="n">
         <v>254.5252074680398</v>
       </c>
       <c r="E23" t="n">
-        <v>254.1825106593025</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F23" t="n">
         <v>306.7182115890683</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>49.71128378850655</v>
+        <v>19.33169715514675</v>
       </c>
       <c r="S23" t="n">
         <v>108.8622354336022</v>
       </c>
       <c r="T23" t="n">
-        <v>95.34799015117208</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U23" t="n">
         <v>151.1878187551933</v>
@@ -24271,10 +24271,10 @@
         <v>249.0831345647699</v>
       </c>
       <c r="X23" t="n">
-        <v>269.5732665258259</v>
+        <v>235.0823643535282</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4900792430943</v>
+        <v>251.5892023311127</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E24" t="n">
-        <v>57.48724630275781</v>
+        <v>22.99634413046013</v>
       </c>
       <c r="F24" t="n">
-        <v>32.68769407530763</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G24" t="n">
-        <v>37.1856830105675</v>
+        <v>18.88370646106106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>100.0068945421785</v>
       </c>
       <c r="U24" t="n">
-        <v>98.19352266801555</v>
+        <v>91.29264575603401</v>
       </c>
       <c r="V24" t="n">
-        <v>105.052727736466</v>
+        <v>98.15185082448444</v>
       </c>
       <c r="W24" t="n">
         <v>151.5371490082765</v>
       </c>
       <c r="X24" t="n">
-        <v>78.0251257905182</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y24" t="n">
         <v>105.5248616246612</v>
@@ -24375,7 +24375,7 @@
         <v>46.27612849392604</v>
       </c>
       <c r="F25" t="n">
-        <v>20.96191962100166</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G25" t="n">
         <v>67.83314520581563</v>
@@ -24384,7 +24384,7 @@
         <v>62.06933835479644</v>
       </c>
       <c r="I25" t="n">
-        <v>55.29264077461515</v>
+        <v>20.80173860231747</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U25" t="n">
-        <v>158.5711699435316</v>
+        <v>151.67029303155</v>
       </c>
       <c r="V25" t="n">
         <v>151.9798091711849</v>
@@ -24429,10 +24429,10 @@
         <v>186.3651641839479</v>
       </c>
       <c r="X25" t="n">
-        <v>97.96179597607788</v>
+        <v>91.06091906409634</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.83679393913552</v>
+        <v>88.04723256609188</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>293.1781186410099</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>298.3160794034038</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>93.48923145867469</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>32.88245982941847</v>
+        <v>25.98158291743692</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>99.20831454041861</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>131.5694334230617</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>203.8647234464221</v>
       </c>
       <c r="W26" t="n">
         <v>259.8443358659979</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.54652553813612</v>
+        <v>42.64564862615458</v>
       </c>
       <c r="C27" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>23.557530540926</v>
       </c>
       <c r="E27" t="n">
-        <v>54.70835465592748</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>54.69651299210661</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>83.17807058309039</v>
+        <v>80.38850921004673</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>102.053847057262</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
@@ -24603,10 +24603,10 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>50.26016298689662</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>34.91754591751083</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
         <v>57.03732979515409</v>
@@ -24615,13 +24615,13 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>44.103444334746</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>42.45095302266472</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>31.56293990354553</v>
       </c>
       <c r="J28" t="n">
         <v>3.962547265257697</v>
@@ -24654,7 +24654,7 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>110.9589313165503</v>
+        <v>104.0580544045688</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
@@ -24663,7 +24663,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>169.5363402248598</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>269.0359145627791</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
         <v>275.8762589195925</v>
@@ -24700,7 +24700,7 @@
         <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>86.58835454669315</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>106.1091914524002</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>134.3589947961053</v>
+        <v>127.4581178841238</v>
       </c>
       <c r="V29" t="n">
-        <v>210.7656003584037</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
         <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>245.8435656547563</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.8413058046385</v>
+        <v>266.4617191712787</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.54652553813612</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>48.82096396460298</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
@@ -24773,10 +24773,10 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>13.45598213949788</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>83.17807058309039</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>108.9547239692436</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>135.8631790497318</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>127.8074481372069</v>
       </c>
       <c r="X30" t="n">
-        <v>92.07505810277596</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -24843,7 +24843,7 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>31.62881490648114</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
@@ -24855,13 +24855,13 @@
         <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8305396560245</v>
+        <v>38.33963748372682</v>
       </c>
       <c r="I31" t="n">
         <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>61.47971915765233</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>100.1290630132595</v>
       </c>
       <c r="T31" t="n">
-        <v>110.9589313165503</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6211022557894</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>135.1509852120968</v>
+        <v>128.2501083001152</v>
       </c>
       <c r="W31" t="n">
         <v>197.1263654851759</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>278.7757904788195</v>
+        <v>281.8289182874107</v>
       </c>
       <c r="C32" t="n">
-        <v>261.3148405863465</v>
+        <v>264.3679683949377</v>
       </c>
       <c r="D32" t="n">
-        <v>223.1349651757058</v>
+        <v>219.2872160723154</v>
       </c>
       <c r="E32" t="n">
-        <v>253.6710246383143</v>
+        <v>281.0254466961919</v>
       </c>
       <c r="F32" t="n">
-        <v>302.9179945570504</v>
+        <v>305.9711223656416</v>
       </c>
       <c r="G32" t="n">
-        <v>311.344686330474</v>
+        <v>314.3978141390652</v>
       </c>
       <c r="H32" t="n">
-        <v>235.5167509311061</v>
+        <v>238.5698787396973</v>
       </c>
       <c r="I32" t="n">
-        <v>106.5178383857449</v>
+        <v>79.19137956097629</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.91106675648865</v>
+        <v>48.96419456507984</v>
       </c>
       <c r="S32" t="n">
-        <v>77.47199314126817</v>
+        <v>108.1151462101755</v>
       </c>
       <c r="T32" t="n">
-        <v>91.54777311915419</v>
+        <v>122.1909261880615</v>
       </c>
       <c r="U32" t="n">
-        <v>147.3876017231755</v>
+        <v>150.4407295317666</v>
       </c>
       <c r="V32" t="n">
-        <v>223.7942072854739</v>
+        <v>192.3564329217674</v>
       </c>
       <c r="W32" t="n">
-        <v>245.282917532752</v>
+        <v>213.8451431690455</v>
       </c>
       <c r="X32" t="n">
-        <v>265.773049493808</v>
+        <v>268.8261773023992</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.2798874713926</v>
+        <v>285.3330152799837</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.27383821591986</v>
+        <v>31.13735810149981</v>
       </c>
       <c r="C33" t="n">
-        <v>68.75044780365471</v>
+        <v>37.31267343994821</v>
       </c>
       <c r="D33" t="n">
-        <v>43.48701437997772</v>
+        <v>46.54014218856891</v>
       </c>
       <c r="E33" t="n">
-        <v>26.09700401042377</v>
+        <v>56.7401570793311</v>
       </c>
       <c r="F33" t="n">
-        <v>41.11116120872285</v>
+        <v>44.16428901731403</v>
       </c>
       <c r="G33" t="n">
-        <v>33.3854659785496</v>
+        <v>36.43859378714079</v>
       </c>
       <c r="H33" t="n">
-        <v>8.277393051835432</v>
+        <v>11.33052086042662</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>67.72511991917679</v>
+        <v>70.77824772776798</v>
       </c>
       <c r="T33" t="n">
-        <v>96.20667751016057</v>
+        <v>99.25980531875176</v>
       </c>
       <c r="U33" t="n">
-        <v>121.9833308963138</v>
+        <v>125.036458704905</v>
       </c>
       <c r="V33" t="n">
-        <v>128.8425359647642</v>
+        <v>131.8956637733554</v>
       </c>
       <c r="W33" t="n">
-        <v>147.7369319762586</v>
+        <v>116.2991576125521</v>
       </c>
       <c r="X33" t="n">
-        <v>74.22490875850031</v>
+        <v>104.8680618274076</v>
       </c>
       <c r="Y33" t="n">
-        <v>74.13461933232719</v>
+        <v>74.39818576787474</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.87392899727627</v>
+        <v>78.92705680586745</v>
       </c>
       <c r="C34" t="n">
-        <v>63.2887699139668</v>
+        <v>66.34189772255799</v>
       </c>
       <c r="D34" t="n">
-        <v>17.06739657323519</v>
+        <v>47.71054964214251</v>
       </c>
       <c r="E34" t="n">
-        <v>42.47591146190814</v>
+        <v>45.52903927049933</v>
       </c>
       <c r="F34" t="n">
-        <v>13.87297157795408</v>
+        <v>44.5161246468614</v>
       </c>
       <c r="G34" t="n">
-        <v>64.03292817379773</v>
+        <v>67.08605598238891</v>
       </c>
       <c r="H34" t="n">
-        <v>58.26912132277855</v>
+        <v>61.32224913136973</v>
       </c>
       <c r="I34" t="n">
-        <v>23.90239848228111</v>
+        <v>54.54555155118844</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.33534019250845</v>
+        <v>76.38846800109964</v>
       </c>
       <c r="S34" t="n">
-        <v>120.0585468523112</v>
+        <v>123.1116746609024</v>
       </c>
       <c r="T34" t="n">
-        <v>123.9875382436205</v>
+        <v>92.54976387991397</v>
       </c>
       <c r="U34" t="n">
-        <v>158.0596839225434</v>
+        <v>150.9232038081233</v>
       </c>
       <c r="V34" t="n">
-        <v>148.179592139167</v>
+        <v>120.8531333143984</v>
       </c>
       <c r="W34" t="n">
-        <v>182.56494715193</v>
+        <v>151.1271727882234</v>
       </c>
       <c r="X34" t="n">
-        <v>121.7516042043761</v>
+        <v>124.8047320129673</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6266021674338</v>
+        <v>117.6797299760249</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>278.7757904788195</v>
+        <v>247.338016115113</v>
       </c>
       <c r="C35" t="n">
-        <v>261.3148405863465</v>
+        <v>264.3679683949377</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7249904360219</v>
+        <v>253.7781182446131</v>
       </c>
       <c r="E35" t="n">
-        <v>277.9723188876007</v>
+        <v>281.0254466961919</v>
       </c>
       <c r="F35" t="n">
-        <v>275.3279692967343</v>
+        <v>275.5915357322818</v>
       </c>
       <c r="G35" t="n">
-        <v>311.344686330474</v>
+        <v>314.3978141390652</v>
       </c>
       <c r="H35" t="n">
-        <v>235.5167509311061</v>
+        <v>238.5698787396973</v>
       </c>
       <c r="I35" t="n">
-        <v>78.92781312542874</v>
+        <v>109.5709661943361</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.32104149617251</v>
+        <v>14.47329239278216</v>
       </c>
       <c r="S35" t="n">
-        <v>80.76072415229785</v>
+        <v>108.1151462101755</v>
       </c>
       <c r="T35" t="n">
-        <v>119.1377983794703</v>
+        <v>122.1909261880615</v>
       </c>
       <c r="U35" t="n">
-        <v>147.3876017231755</v>
+        <v>150.4407295317666</v>
       </c>
       <c r="V35" t="n">
-        <v>223.7942072854739</v>
+        <v>226.847335094065</v>
       </c>
       <c r="W35" t="n">
-        <v>245.282917532752</v>
+        <v>248.3360453413432</v>
       </c>
       <c r="X35" t="n">
-        <v>265.773049493808</v>
+        <v>268.8261773023992</v>
       </c>
       <c r="Y35" t="n">
-        <v>282.2798874713926</v>
+        <v>250.842113107686</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.57513246520631</v>
+        <v>65.62826027379749</v>
       </c>
       <c r="C36" t="n">
-        <v>68.75044780365471</v>
+        <v>71.80357561224589</v>
       </c>
       <c r="D36" t="n">
-        <v>43.48701437997772</v>
+        <v>46.54014218856891</v>
       </c>
       <c r="E36" t="n">
-        <v>53.68702927073991</v>
+        <v>56.7401570793311</v>
       </c>
       <c r="F36" t="n">
-        <v>41.11116120872285</v>
+        <v>44.16428901731403</v>
       </c>
       <c r="G36" t="n">
-        <v>33.3854659785496</v>
+        <v>36.43859378714079</v>
       </c>
       <c r="H36" t="n">
-        <v>8.277393051835432</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>67.72511991917679</v>
+        <v>51.72918195483481</v>
       </c>
       <c r="T36" t="n">
-        <v>71.90538326087412</v>
+        <v>99.25980531875176</v>
       </c>
       <c r="U36" t="n">
-        <v>94.39330563599765</v>
+        <v>90.54555653260729</v>
       </c>
       <c r="V36" t="n">
-        <v>101.2525107044481</v>
+        <v>97.40476160105773</v>
       </c>
       <c r="W36" t="n">
-        <v>120.1469067159424</v>
+        <v>116.2991576125521</v>
       </c>
       <c r="X36" t="n">
-        <v>101.8149340188164</v>
+        <v>104.8680618274076</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.7246445926433</v>
+        <v>104.7777724012345</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.87392899727627</v>
+        <v>44.43615463356977</v>
       </c>
       <c r="C37" t="n">
-        <v>63.2887699139668</v>
+        <v>31.85099555026031</v>
       </c>
       <c r="D37" t="n">
-        <v>44.65742183355133</v>
+        <v>47.71054964214251</v>
       </c>
       <c r="E37" t="n">
-        <v>18.17461721262169</v>
+        <v>45.52903927049933</v>
       </c>
       <c r="F37" t="n">
-        <v>41.46299683827021</v>
+        <v>44.5161246468614</v>
       </c>
       <c r="G37" t="n">
-        <v>36.44290291348159</v>
+        <v>67.08605598238891</v>
       </c>
       <c r="H37" t="n">
-        <v>30.67909606246241</v>
+        <v>61.32224913136973</v>
       </c>
       <c r="I37" t="n">
-        <v>23.90239848228111</v>
+        <v>54.54555155118844</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.33534019250845</v>
+        <v>46.00888136773985</v>
       </c>
       <c r="S37" t="n">
-        <v>120.0585468523112</v>
+        <v>123.1116746609024</v>
       </c>
       <c r="T37" t="n">
-        <v>123.9875382436205</v>
+        <v>92.54976387991397</v>
       </c>
       <c r="U37" t="n">
-        <v>182.3609781718299</v>
+        <v>185.414105980421</v>
       </c>
       <c r="V37" t="n">
-        <v>148.179592139167</v>
+        <v>151.2327199477581</v>
       </c>
       <c r="W37" t="n">
-        <v>182.56494715193</v>
+        <v>185.6180749605211</v>
       </c>
       <c r="X37" t="n">
-        <v>121.7516042043761</v>
+        <v>124.8047320129673</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.6266021674338</v>
+        <v>117.6797299760249</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>278.7757904788195</v>
+        <v>281.8289182874107</v>
       </c>
       <c r="C38" t="n">
-        <v>261.3148405863465</v>
+        <v>264.3679683949377</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7249904360219</v>
+        <v>253.7781182446131</v>
       </c>
       <c r="E38" t="n">
-        <v>277.9723188876007</v>
+        <v>281.0254466961919</v>
       </c>
       <c r="F38" t="n">
-        <v>278.6167003077639</v>
+        <v>305.9711223656416</v>
       </c>
       <c r="G38" t="n">
-        <v>283.7546610701579</v>
+        <v>314.3978141390652</v>
       </c>
       <c r="H38" t="n">
-        <v>235.5167509311061</v>
+        <v>238.5698787396973</v>
       </c>
       <c r="I38" t="n">
-        <v>106.5178383857449</v>
+        <v>109.5709661943361</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.32104149617251</v>
+        <v>18.58460793172004</v>
       </c>
       <c r="S38" t="n">
-        <v>105.0620184015843</v>
+        <v>108.1151462101755</v>
       </c>
       <c r="T38" t="n">
-        <v>119.1377983794703</v>
+        <v>122.1909261880615</v>
       </c>
       <c r="U38" t="n">
-        <v>147.3876017231755</v>
+        <v>115.949827359469</v>
       </c>
       <c r="V38" t="n">
-        <v>223.7942072854739</v>
+        <v>192.3564329217674</v>
       </c>
       <c r="W38" t="n">
-        <v>245.282917532752</v>
+        <v>213.8451431690455</v>
       </c>
       <c r="X38" t="n">
-        <v>265.773049493808</v>
+        <v>268.8261773023992</v>
       </c>
       <c r="Y38" t="n">
-        <v>254.6898622110764</v>
+        <v>285.3330152799837</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.57513246520631</v>
+        <v>35.24867364043772</v>
       </c>
       <c r="C39" t="n">
-        <v>68.75044780365471</v>
+        <v>37.31267343994821</v>
       </c>
       <c r="D39" t="n">
-        <v>43.48701437997772</v>
+        <v>46.54014218856891</v>
       </c>
       <c r="E39" t="n">
-        <v>53.68702927073991</v>
+        <v>22.24925490703342</v>
       </c>
       <c r="F39" t="n">
-        <v>41.11116120872285</v>
+        <v>44.16428901731403</v>
       </c>
       <c r="G39" t="n">
-        <v>33.3854659785496</v>
+        <v>36.43859378714079</v>
       </c>
       <c r="H39" t="n">
-        <v>8.277393051835432</v>
+        <v>11.33052086042662</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>67.72511991917679</v>
+        <v>36.2873455554703</v>
       </c>
       <c r="T39" t="n">
-        <v>96.20667751016057</v>
+        <v>99.25980531875176</v>
       </c>
       <c r="U39" t="n">
-        <v>94.39330563599765</v>
+        <v>125.036458704905</v>
       </c>
       <c r="V39" t="n">
-        <v>101.2525107044481</v>
+        <v>131.8956637733554</v>
       </c>
       <c r="W39" t="n">
-        <v>120.1469067159424</v>
+        <v>150.7900597848497</v>
       </c>
       <c r="X39" t="n">
-        <v>77.51363976952999</v>
+        <v>104.8680618274076</v>
       </c>
       <c r="Y39" t="n">
-        <v>101.7246445926433</v>
+        <v>104.7777724012345</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.87392899727627</v>
+        <v>78.92705680586745</v>
       </c>
       <c r="C40" t="n">
-        <v>38.98747566468035</v>
+        <v>66.34189772255799</v>
       </c>
       <c r="D40" t="n">
-        <v>44.65742183355133</v>
+        <v>47.71054964214251</v>
       </c>
       <c r="E40" t="n">
-        <v>42.47591146190814</v>
+        <v>45.52903927049933</v>
       </c>
       <c r="F40" t="n">
-        <v>41.46299683827021</v>
+        <v>44.5161246468614</v>
       </c>
       <c r="G40" t="n">
-        <v>64.03292817379773</v>
+        <v>67.08605598238891</v>
       </c>
       <c r="H40" t="n">
-        <v>58.26912132277855</v>
+        <v>61.32224913136973</v>
       </c>
       <c r="I40" t="n">
-        <v>51.49242374259725</v>
+        <v>20.05464937889076</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.74531493219231</v>
+        <v>76.38846800109964</v>
       </c>
       <c r="S40" t="n">
-        <v>92.46852159199508</v>
+        <v>123.1116746609024</v>
       </c>
       <c r="T40" t="n">
-        <v>96.39751298330432</v>
+        <v>127.0406660522116</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3609781718299</v>
+        <v>155.0345193470612</v>
       </c>
       <c r="V40" t="n">
-        <v>148.179592139167</v>
+        <v>116.7418177754605</v>
       </c>
       <c r="W40" t="n">
-        <v>182.56494715193</v>
+        <v>185.6180749605211</v>
       </c>
       <c r="X40" t="n">
-        <v>121.7516042043761</v>
+        <v>124.8047320129673</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.6266021674338</v>
+        <v>83.18882780372726</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>329.8211967686905</v>
+        <v>360.4643498375978</v>
       </c>
       <c r="C41" t="n">
-        <v>339.9502721365336</v>
+        <v>343.0033999451247</v>
       </c>
       <c r="D41" t="n">
-        <v>329.360421986209</v>
+        <v>332.4135497948001</v>
       </c>
       <c r="E41" t="n">
-        <v>356.6077504377878</v>
+        <v>359.660878246379</v>
       </c>
       <c r="F41" t="n">
-        <v>381.5534261072374</v>
+        <v>384.6065539158286</v>
       </c>
       <c r="G41" t="n">
-        <v>362.3900926203449</v>
+        <v>393.0332456892522</v>
       </c>
       <c r="H41" t="n">
-        <v>314.1521824812932</v>
+        <v>317.2053102898843</v>
       </c>
       <c r="I41" t="n">
-        <v>160.8519756866455</v>
+        <v>188.2063977445231</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5464983066757</v>
+        <v>127.5996261152668</v>
       </c>
       <c r="S41" t="n">
-        <v>183.6974499517713</v>
+        <v>186.7505777603625</v>
       </c>
       <c r="T41" t="n">
-        <v>197.7732299296574</v>
+        <v>170.4467711048887</v>
       </c>
       <c r="U41" t="n">
-        <v>226.0230332733625</v>
+        <v>194.585258909656</v>
       </c>
       <c r="V41" t="n">
-        <v>302.4296388356609</v>
+        <v>270.9918644719543</v>
       </c>
       <c r="W41" t="n">
-        <v>323.918349082939</v>
+        <v>292.4805747192325</v>
       </c>
       <c r="X41" t="n">
-        <v>344.408481043995</v>
+        <v>347.4616088525862</v>
       </c>
       <c r="Y41" t="n">
-        <v>333.3252937612634</v>
+        <v>363.9684468301707</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113.6205387550772</v>
+        <v>144.2636918239845</v>
       </c>
       <c r="C42" t="n">
-        <v>123.0845851045553</v>
+        <v>150.4390071624329</v>
       </c>
       <c r="D42" t="n">
-        <v>122.1224459301647</v>
+        <v>125.1755737387559</v>
       </c>
       <c r="E42" t="n">
-        <v>132.3224608209269</v>
+        <v>135.3755886295181</v>
       </c>
       <c r="F42" t="n">
-        <v>92.15656749859373</v>
+        <v>122.799720567501</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0208975287366</v>
+        <v>115.0740253373278</v>
       </c>
       <c r="H42" t="n">
-        <v>86.91282460202245</v>
+        <v>59.58636577725383</v>
       </c>
       <c r="I42" t="n">
-        <v>64.07401321694107</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>74.83521451816912</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="S42" t="n">
-        <v>146.3605514693638</v>
+        <v>114.9227771056573</v>
       </c>
       <c r="T42" t="n">
-        <v>174.8421090603476</v>
+        <v>143.4043346966411</v>
       </c>
       <c r="U42" t="n">
-        <v>200.6187624465008</v>
+        <v>203.671890255092</v>
       </c>
       <c r="V42" t="n">
-        <v>207.4779675149513</v>
+        <v>176.0401931512448</v>
       </c>
       <c r="W42" t="n">
-        <v>226.3723635264456</v>
+        <v>229.4254913350368</v>
       </c>
       <c r="X42" t="n">
-        <v>152.8603403086873</v>
+        <v>183.5034933775946</v>
       </c>
       <c r="Y42" t="n">
-        <v>180.3600761428303</v>
+        <v>183.4132039514215</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.5093605474633</v>
+        <v>157.5624883560544</v>
       </c>
       <c r="C43" t="n">
-        <v>141.9242014641538</v>
+        <v>144.977329272745</v>
       </c>
       <c r="D43" t="n">
-        <v>123.2928533837383</v>
+        <v>126.3459811923295</v>
       </c>
       <c r="E43" t="n">
-        <v>121.1113430120952</v>
+        <v>124.1644708206863</v>
       </c>
       <c r="F43" t="n">
-        <v>92.5084031281411</v>
+        <v>123.1515561970484</v>
       </c>
       <c r="G43" t="n">
-        <v>142.6683597239847</v>
+        <v>145.7214875325759</v>
       </c>
       <c r="H43" t="n">
-        <v>136.9045528729656</v>
+        <v>105.466778509259</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1278552927843</v>
+        <v>133.1809831013754</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73526623291232</v>
+        <v>40.71010165743014</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.83942361722038</v>
+        <v>63.89255142581153</v>
       </c>
       <c r="R43" t="n">
-        <v>151.9707717426955</v>
+        <v>155.0238995512866</v>
       </c>
       <c r="S43" t="n">
-        <v>198.6939784024983</v>
+        <v>201.7471062110894</v>
       </c>
       <c r="T43" t="n">
-        <v>202.6229697938075</v>
+        <v>205.6760976023986</v>
       </c>
       <c r="U43" t="n">
-        <v>260.9964097220169</v>
+        <v>264.0495375306081</v>
       </c>
       <c r="V43" t="n">
-        <v>226.815023689354</v>
+        <v>195.3772493256475</v>
       </c>
       <c r="W43" t="n">
-        <v>233.6103534418009</v>
+        <v>264.2535065107081</v>
       </c>
       <c r="X43" t="n">
-        <v>200.3870357545632</v>
+        <v>168.9492613908566</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.6720084573047</v>
+        <v>196.3151615262119</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.4112220290066</v>
+        <v>325.9734476653001</v>
       </c>
       <c r="C44" t="n">
-        <v>339.9502721365336</v>
+        <v>343.0033999451247</v>
       </c>
       <c r="D44" t="n">
-        <v>329.360421986209</v>
+        <v>302.0339631614403</v>
       </c>
       <c r="E44" t="n">
-        <v>356.6077504377878</v>
+        <v>359.660878246379</v>
       </c>
       <c r="F44" t="n">
-        <v>381.5534261072374</v>
+        <v>384.6065539158286</v>
       </c>
       <c r="G44" t="n">
-        <v>389.9801178806611</v>
+        <v>393.0332456892522</v>
       </c>
       <c r="H44" t="n">
-        <v>314.1521824812932</v>
+        <v>317.2053102898843</v>
       </c>
       <c r="I44" t="n">
-        <v>157.5632446756158</v>
+        <v>188.2063977445231</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2452040573892</v>
+        <v>127.5996261152668</v>
       </c>
       <c r="S44" t="n">
-        <v>156.1074246914552</v>
+        <v>186.7505777603625</v>
       </c>
       <c r="T44" t="n">
-        <v>170.1832046693412</v>
+        <v>200.8263577382485</v>
       </c>
       <c r="U44" t="n">
-        <v>226.0230332733625</v>
+        <v>229.0761610819536</v>
       </c>
       <c r="V44" t="n">
-        <v>302.4296388356609</v>
+        <v>305.482766644252</v>
       </c>
       <c r="W44" t="n">
-        <v>323.918349082939</v>
+        <v>292.4805747192325</v>
       </c>
       <c r="X44" t="n">
-        <v>344.408481043995</v>
+        <v>347.4616088525862</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.9153190215796</v>
+        <v>329.477544657873</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>141.2105640153933</v>
+        <v>144.2636918239845</v>
       </c>
       <c r="C45" t="n">
-        <v>147.3858793538417</v>
+        <v>150.4390071624329</v>
       </c>
       <c r="D45" t="n">
-        <v>122.1224459301647</v>
+        <v>125.1755737387559</v>
       </c>
       <c r="E45" t="n">
-        <v>104.7324355606108</v>
+        <v>135.3755886295181</v>
       </c>
       <c r="F45" t="n">
-        <v>119.7465927589099</v>
+        <v>122.799720567501</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0208975287366</v>
+        <v>80.5831231650301</v>
       </c>
       <c r="H45" t="n">
-        <v>62.611530352736</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="I45" t="n">
-        <v>64.07401321694107</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.24518925785299</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="S45" t="n">
-        <v>146.3605514693638</v>
+        <v>149.413679277955</v>
       </c>
       <c r="T45" t="n">
-        <v>174.8421090603476</v>
+        <v>143.4043346966411</v>
       </c>
       <c r="U45" t="n">
-        <v>200.6187624465008</v>
+        <v>203.671890255092</v>
       </c>
       <c r="V45" t="n">
-        <v>207.4779675149513</v>
+        <v>176.0401931512448</v>
       </c>
       <c r="W45" t="n">
-        <v>226.3723635264456</v>
+        <v>199.045904701677</v>
       </c>
       <c r="X45" t="n">
-        <v>180.4503655690035</v>
+        <v>183.5034933775946</v>
       </c>
       <c r="Y45" t="n">
-        <v>152.7700508825142</v>
+        <v>183.4132039514215</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.9193352871472</v>
+        <v>157.5624883560544</v>
       </c>
       <c r="C46" t="n">
-        <v>114.3341762038377</v>
+        <v>144.977329272745</v>
       </c>
       <c r="D46" t="n">
-        <v>95.70282812342221</v>
+        <v>126.3459811923295</v>
       </c>
       <c r="E46" t="n">
-        <v>121.1113430120952</v>
+        <v>124.1644708206863</v>
       </c>
       <c r="F46" t="n">
-        <v>120.0984283884572</v>
+        <v>123.1515561970484</v>
       </c>
       <c r="G46" t="n">
-        <v>142.6683597239847</v>
+        <v>145.7214875325759</v>
       </c>
       <c r="H46" t="n">
-        <v>136.9045528729656</v>
+        <v>139.9576806815567</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1278552927843</v>
+        <v>133.1809831013754</v>
       </c>
       <c r="J46" t="n">
-        <v>68.03656048219877</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.83942361722038</v>
+        <v>63.89255142581153</v>
       </c>
       <c r="R46" t="n">
-        <v>151.9707717426955</v>
+        <v>155.0238995512866</v>
       </c>
       <c r="S46" t="n">
-        <v>198.6939784024983</v>
+        <v>201.7471062110894</v>
       </c>
       <c r="T46" t="n">
-        <v>202.6229697938075</v>
+        <v>171.185195430101</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9964097220169</v>
+        <v>264.0495375306081</v>
       </c>
       <c r="V46" t="n">
-        <v>226.815023689354</v>
+        <v>229.8681514979451</v>
       </c>
       <c r="W46" t="n">
-        <v>261.200378702117</v>
+        <v>229.7626043384104</v>
       </c>
       <c r="X46" t="n">
-        <v>200.3870357545632</v>
+        <v>173.0605769297945</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.9607394683343</v>
+        <v>161.8242593539143</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>468594.1547591002</v>
+        <v>473359.0926312691</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>450011.4104299531</v>
+        <v>454776.3483021221</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>450011.4104299531</v>
+        <v>454776.3483021221</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>475010.4411959595</v>
+        <v>474620.478076103</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475010.4411959595</v>
+        <v>474620.478076103</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475010.4411959595</v>
+        <v>474620.478076103</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335505.2974108576</v>
+        <v>334811.2427612654</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335505.2974108575</v>
+        <v>334811.2427612654</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>430436.614574075</v>
+        <v>430436.6145740747</v>
       </c>
       <c r="F2" t="n">
-        <v>430436.614574075</v>
+        <v>430436.6145740747</v>
       </c>
       <c r="G2" t="n">
-        <v>455213.6070129377</v>
+        <v>455213.6070129378</v>
       </c>
       <c r="H2" t="n">
         <v>455213.6070129378</v>
       </c>
       <c r="I2" t="n">
-        <v>470846.0270373524</v>
+        <v>474756.0418128748</v>
       </c>
       <c r="J2" t="n">
-        <v>446069.034598489</v>
+        <v>449979.0493740116</v>
       </c>
       <c r="K2" t="n">
-        <v>446069.034598489</v>
+        <v>449979.0493740116</v>
       </c>
       <c r="L2" t="n">
-        <v>479401.0756198307</v>
+        <v>476437.8890726531</v>
       </c>
       <c r="M2" t="n">
-        <v>479401.0756198309</v>
+        <v>476437.8890726531</v>
       </c>
       <c r="N2" t="n">
-        <v>479401.075619831</v>
+        <v>476437.8890726531</v>
       </c>
       <c r="O2" t="n">
-        <v>293394.2172396954</v>
+        <v>290025.5753195368</v>
       </c>
       <c r="P2" t="n">
-        <v>293394.2172396952</v>
+        <v>290025.5753195368</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7336.767107248528</v>
+        <v>9171.855196559571</v>
       </c>
       <c r="J3" t="n">
-        <v>62908.34524014962</v>
+        <v>62908.3452401496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20258.0957075792</v>
+        <v>17815.59346070626</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>252607.0155662678</v>
+        <v>254630.6691067324</v>
       </c>
       <c r="J4" t="n">
-        <v>238465.1240505631</v>
+        <v>240488.7775910277</v>
       </c>
       <c r="K4" t="n">
-        <v>238465.1240505632</v>
+        <v>240488.7775910277</v>
       </c>
       <c r="L4" t="n">
-        <v>257489.9556270329</v>
+        <v>255590.6121487483</v>
       </c>
       <c r="M4" t="n">
-        <v>257489.9556270329</v>
+        <v>255590.6121487483</v>
       </c>
       <c r="N4" t="n">
-        <v>257489.955627033</v>
+        <v>255590.6121487483</v>
       </c>
       <c r="O4" t="n">
-        <v>151323.3650337779</v>
+        <v>149192.6009779836</v>
       </c>
       <c r="P4" t="n">
-        <v>151323.3650337779</v>
+        <v>149192.6009779836</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>8420.168959378556</v>
       </c>
       <c r="I5" t="n">
-        <v>10097.64249520578</v>
+        <v>10517.21581145425</v>
       </c>
       <c r="J5" t="n">
-        <v>9192.959063012835</v>
+        <v>9612.532379261313</v>
       </c>
       <c r="K5" t="n">
-        <v>9192.959063012835</v>
+        <v>9612.532379261313</v>
       </c>
       <c r="L5" t="n">
-        <v>10417.12294087049</v>
+        <v>10580.02285537851</v>
       </c>
       <c r="M5" t="n">
-        <v>10417.12294087049</v>
+        <v>10580.02285537851</v>
       </c>
       <c r="N5" t="n">
-        <v>10417.12294087049</v>
+        <v>10580.02285537851</v>
       </c>
       <c r="O5" t="n">
-        <v>3806.320845877816</v>
+        <v>3969.220760385845</v>
       </c>
       <c r="P5" t="n">
-        <v>3806.320845877816</v>
+        <v>3969.220760385845</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333248.7481680734</v>
+        <v>333204.6123893921</v>
       </c>
       <c r="C6" t="n">
-        <v>333248.748168073</v>
+        <v>333204.6123893921</v>
       </c>
       <c r="D6" t="n">
-        <v>333248.7481680731</v>
+        <v>333204.612389392</v>
       </c>
       <c r="E6" t="n">
-        <v>120940.74443061</v>
+        <v>111175.6155483544</v>
       </c>
       <c r="F6" t="n">
-        <v>192458.050711742</v>
+        <v>182692.9218294865</v>
       </c>
       <c r="G6" t="n">
-        <v>193579.5071617246</v>
+        <v>184433.8030904411</v>
       </c>
       <c r="H6" t="n">
-        <v>202188.4682027071</v>
+        <v>193042.7641314235</v>
       </c>
       <c r="I6" t="n">
-        <v>200804.6018686302</v>
+        <v>191779.1584968434</v>
       </c>
       <c r="J6" t="n">
-        <v>135502.6062447634</v>
+        <v>127692.8261513163</v>
       </c>
       <c r="K6" t="n">
-        <v>198410.951484913</v>
+        <v>190601.1713914659</v>
       </c>
       <c r="L6" t="n">
-        <v>191235.9013443481</v>
+        <v>183836.5635880293</v>
       </c>
       <c r="M6" t="n">
-        <v>211493.9970519275</v>
+        <v>201652.1570487355</v>
       </c>
       <c r="N6" t="n">
-        <v>211493.9970519275</v>
+        <v>201652.1570487355</v>
       </c>
       <c r="O6" t="n">
-        <v>138264.5313600397</v>
+        <v>123588.3487175487</v>
       </c>
       <c r="P6" t="n">
-        <v>138264.5313600395</v>
+        <v>123588.3487175487</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="M2" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="N2" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="O2" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="P2" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="3">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018699</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.322619634474</v>
+        <v>22.26949182588282</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018699</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29219,10 +29219,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>94.77646858102224</v>
       </c>
       <c r="K25" t="n">
-        <v>24.15964067679301</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="R25" t="n">
         <v>100.1578341526431</v>
@@ -29459,7 +29459,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
-        <v>24.15964067679301</v>
+        <v>37.68257119118108</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>37.68257119118108</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="34">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>37.68257119118108</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.05219210260454</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="37">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>24.15964067679301</v>
+        <v>37.68257119118108</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30352,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="40">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="C40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="D40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="E40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="F40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="G40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="H40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="I40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="J40" t="n">
-        <v>95.24932896758294</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>30.13682793178402</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="S40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="T40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="U40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="V40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="W40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="X40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.958051184661</v>
+        <v>100.9049233760698</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K43" t="n">
-        <v>24.15964067679301</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>18.13452010040474</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="R43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -30893,37 +30893,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>18.13452010040474</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="R46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.32261963447401</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="L23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O23" t="n">
-        <v>26.47527676494983</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>26.47527676494984</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="M24" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N24" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.417288464349465</v>
       </c>
       <c r="K25" t="n">
-        <v>1.89014885091016</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36536,7 +36536,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>13.99579090094875</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L26" t="n">
-        <v>26.47527676494984</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M26" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735637</v>
       </c>
       <c r="N26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>33.09733036735636</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.89014885091016</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="L28" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>26.47527676494983</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P29" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N30" t="n">
-        <v>26.47527676494983</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O30" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>33.09733036735636</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="L31" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O32" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735636</v>
       </c>
       <c r="P32" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="N33" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O33" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="L34" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37247,7 +37247,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O35" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>33.09733036735636</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.89014885091016</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P38" t="n">
-        <v>26.47527676494983</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L39" t="n">
-        <v>26.47527676494984</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M39" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735637</v>
       </c>
       <c r="N39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.89014885091016</v>
+        <v>7.545743259397071</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>7.867336105901162</v>
       </c>
       <c r="L40" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="L41" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N41" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O41" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L42" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M42" t="n">
-        <v>26.47527676494983</v>
+        <v>33.09733036735637</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.89014885091016</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735638</v>
       </c>
       <c r="L44" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O44" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>33.09733036735637</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>26.47527676494983</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,16 +38183,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>34.49090217229768</v>
       </c>
       <c r="O46" t="n">
-        <v>26.47527676494983</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>15.41307936529823</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
